--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1829659.361926121</v>
+        <v>1821814.416983609</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11151129.69316966</v>
+        <v>11151129.69316965</v>
       </c>
     </row>
     <row r="9">
@@ -1370,56 +1370,56 @@
         <v>40.53172782580149</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>40.53172782580149</v>
+      </c>
+      <c r="S11" t="n">
         <v>35.70034586896595</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>40.53172782580149</v>
-      </c>
-      <c r="X11" t="n">
-        <v>40.53172782580149</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,16 +1449,16 @@
         <v>40.53172782580149</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>40.53172782580149</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>35.70034586896595</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>35.70034586896595</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>40.53172782580149</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>40.53172782580149</v>
+        <v>23.42155325762789</v>
       </c>
       <c r="H13" t="n">
         <v>40.53172782580149</v>
@@ -1549,10 +1549,10 @@
         <v>40.53172782580149</v>
       </c>
       <c r="J13" t="n">
-        <v>35.70034586896595</v>
+        <v>40.53172782580149</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>76.45753257579733</v>
+        <v>67.34379469276226</v>
       </c>
       <c r="S14" t="n">
-        <v>76.45753257579733</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>76.45753257579733</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>67.34379469276226</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>76.45753257579734</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.45753257579733</v>
+        <v>67.3437946927623</v>
       </c>
       <c r="C15" t="n">
-        <v>76.45753257579733</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>67.34379469276226</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>76.45753257579733</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>76.45753257579734</v>
       </c>
     </row>
     <row r="16">
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>76.45753257579733</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.45753257579733</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="I16" t="n">
-        <v>76.45753257579733</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="J16" t="n">
-        <v>61.38573559777811</v>
+        <v>61.38573559777812</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>5.958059094984127</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>5.958059094984183</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>85.00619667692935</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>85.00619667692929</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>96.51021421086438</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>96.51021421086438</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>96.51021421086438</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>85.00619667692936</v>
       </c>
       <c r="C18" t="n">
-        <v>16.82180704318083</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>68.18438963374848</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>96.51021421086438</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="T18" t="n">
-        <v>96.51021421086438</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>96.51021421086438</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>96.5102142108644</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>96.51021421086438</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>49.50736526562565</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>7.185749787560973</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.18859873279974</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.51021421086438</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3722083889419</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.9274661321592</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>134.5597391309727</v>
       </c>
       <c r="C21" t="n">
-        <v>140.7350544694211</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>113.0957678744892</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.370072644316</v>
       </c>
       <c r="H21" t="n">
         <v>80.26199971760181</v>
       </c>
       <c r="I21" t="n">
-        <v>57.42318833252043</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>68.18438963374848</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>168.191284175927</v>
+        <v>133.2625749456749</v>
       </c>
       <c r="U21" t="n">
-        <v>155.8994190644347</v>
+        <v>193.9679375620802</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>55.70210354249515</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.37891072231512</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.0175348395641</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>145.3199468582748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>266.8753117251838</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>266.8753117251838</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>266.8753117251838</v>
       </c>
       <c r="E23" t="n">
-        <v>60.66729999696599</v>
+        <v>235.0637745675419</v>
       </c>
       <c r="F23" t="n">
-        <v>266.8753117251838</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>266.8753117251838</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.8753117251838</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>174.3964745705758</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>130.4537686500372</v>
       </c>
       <c r="C24" t="n">
-        <v>69.72351339945179</v>
+        <v>136.6290839884856</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>81.64837116294689</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>53.31721785158495</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>64.07841915281301</v>
       </c>
       <c r="S24" t="n">
-        <v>135.6037561040077</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>164.0853136949915</v>
@@ -2454,7 +2454,7 @@
         <v>189.8619670811447</v>
       </c>
       <c r="V24" t="n">
-        <v>196.7211721495951</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>215.6155681610895</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>104.8037341063455</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.8661744284514</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>216.0582283239979</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>128.995788001892</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>235.0637745675419</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.8753117251838</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>113.7897029413195</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>172.9406545864152</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>187.0164345643012</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>215.2662379080064</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>266.8753117251838</v>
       </c>
-      <c r="W26" t="n">
-        <v>79.8013680178672</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>266.8753117251838</v>
       </c>
     </row>
     <row r="27">
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>136.6290839884856</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>121.5656654555708</v>
+        <v>119.9541523277255</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>76.15602923666634</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>53.31721785158495</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>18.04451838465792</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>135.6037561040077</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>164.0853136949915</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>196.7211721495951</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>215.6155681610895</v>
@@ -2713,28 +2713,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>131.1674060987977</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>112.5360580183822</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>110.354547646739</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06431594233865062</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>40.69159164837944</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>57.27976511684265</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>189.630240389207</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>266.8753117251838</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>247.7522683436129</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>190.503788850209</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>232.544028838697</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>102.0892963091752</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>239.1387588913266</v>
       </c>
       <c r="X29" t="n">
         <v>262.8003274013989</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>266.8753117251838</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>72.90120690486718</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>60.31604782155772</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>41.68469974114224</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>39.50318936949905</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>38.49027474586113</v>
       </c>
       <c r="G31" t="n">
         <v>61.06020608138864</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.51970165018817</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>117.0858247599021</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>83.89298924907412</v>
       </c>
       <c r="U31" t="n">
-        <v>179.3882560794208</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>122.3870186145999</v>
+        <v>145.2068700467579</v>
       </c>
       <c r="W31" t="n">
         <v>179.5922250595209</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.6538800750247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>266.8753117251838</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>165.3428220775201</v>
+        <v>247.7522683436129</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>232.544028838697</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>21.64278911041588</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>144.4148796307664</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>220.8214851930648</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>242.3101954403429</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>262.8003274013989</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>266.8753117251838</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>72.90120690486718</v>
       </c>
       <c r="C34" t="n">
-        <v>60.31604782155772</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>39.50318936949905</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>38.49027474586113</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>61.06020608138864</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.51970165018817</v>
+        <v>28.17273017051709</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>117.0858247599021</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>121.0148161512114</v>
       </c>
       <c r="U34" t="n">
-        <v>108.7928612569056</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>145.2068700467579</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>179.5922250595209</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>118.778882111967</v>
       </c>
       <c r="Y34" t="n">
         <v>111.6538800750247</v>
@@ -3266,25 +3266,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>199.3634286985756</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>226.3435838993821</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>226.3435838993821</v>
       </c>
       <c r="H35" t="n">
-        <v>191.3583266833191</v>
+        <v>226.3435838993821</v>
       </c>
       <c r="I35" t="n">
-        <v>103.5451162933358</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>102.0892963091752</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>116.1650762870612</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>144.4148796307664</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>220.8214851930648</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,16 +3345,16 @@
         <v>59.60241037279722</v>
       </c>
       <c r="C36" t="n">
-        <v>8.952009037209935</v>
+        <v>65.77772571124562</v>
       </c>
       <c r="D36" t="n">
-        <v>40.51429228756864</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>50.71430717833083</v>
+        <v>7.788924081409024</v>
       </c>
       <c r="F36" t="n">
-        <v>38.13843911631376</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>64.75239782676771</v>
       </c>
       <c r="T36" t="n">
         <v>93.23395541775149</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.90120690486718</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>39.50318936949905</v>
       </c>
       <c r="F37" t="n">
-        <v>38.49027474586113</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>48.51970165018817</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>70.36261810009937</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>117.0858247599021</v>
       </c>
       <c r="T37" t="n">
-        <v>121.0148161512114</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>179.3882560794208</v>
+        <v>61.28958428897661</v>
       </c>
       <c r="V37" t="n">
-        <v>15.02063677158825</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>179.5922250595209</v>
@@ -3490,7 +3490,7 @@
         <v>118.778882111967</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>111.6538800750247</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3506,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>167.7199798747794</v>
+      </c>
+      <c r="F38" t="n">
         <v>190.4177791493862</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>190.4177791493862</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>106.1952667901107</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>120.2710467679967</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>190.4177791493862</v>
       </c>
       <c r="Y38" t="n">
-        <v>131.6714454660581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>42.24440959724924</v>
       </c>
       <c r="G39" t="n">
-        <v>33.86477203282263</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>68.85836830770319</v>
       </c>
       <c r="T39" t="n">
-        <v>97.33992589868697</v>
+        <v>20.10192002655728</v>
       </c>
       <c r="U39" t="n">
         <v>123.1165792848402</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.21440576149841</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>64.4220183024932</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>45.79067022207772</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>43.60915985043454</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65.16617656232413</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>74.46858858103485</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>25.11461352049471</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>183.4942265603563</v>
       </c>
       <c r="V40" t="n">
         <v>149.3128405276934</v>
@@ -3724,10 +3724,10 @@
         <v>183.6981955404564</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>122.8848525929025</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.7598505559602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,61 +3752,61 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>32.41579190179625</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>116.1859660046555</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>158.5115493262467</v>
+      </c>
+      <c r="V41" t="n">
+        <v>45.72516007402937</v>
+      </c>
+      <c r="W41" t="n">
         <v>170.3650975143192</v>
-      </c>
-      <c r="I41" t="n">
-        <v>117.6417859888161</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>170.3650975143192</v>
       </c>
       <c r="Y41" t="n">
-        <v>170.3650975143192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>79.87439540672591</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>107.3306251132318</v>
+        <v>82.41723914202146</v>
       </c>
       <c r="U42" t="n">
         <v>133.107278499385</v>
@@ -3879,13 +3879,13 @@
         <v>139.9664835678354</v>
       </c>
       <c r="W42" t="n">
-        <v>158.8608795793298</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>112.9388816218876</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.948722051900265</v>
+        <v>112.8485921957145</v>
       </c>
     </row>
     <row r="43">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.46199780913422</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>74.412717517038</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>39.73667605694763</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>52.58694444134142</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>69.39306892584975</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.45928779557966</v>
       </c>
       <c r="S43" t="n">
-        <v>131.1824944553824</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>170.3650975143192</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>159.3035397422382</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>132.8755518074473</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.750549770505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.86102284752454</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8384003549422736</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.86102284752454</v>
+        <v>12.78768970955482</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>22.7783889240996</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>22.77838892409963</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>25.86102284752454</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.86102284752454</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>22.55198080455306</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4153,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2824889786702034</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.86102284752454</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.30349364926205</v>
+        <v>3.242538226064119</v>
       </c>
       <c r="C11" t="n">
         <v>3.242538226064119</v>
@@ -5045,16 +5045,16 @@
         <v>43.36894877360759</v>
       </c>
       <c r="L11" t="n">
-        <v>81.87409020811901</v>
+        <v>83.49535932115106</v>
       </c>
       <c r="M11" t="n">
-        <v>81.87409020811901</v>
+        <v>122.0005007556625</v>
       </c>
       <c r="N11" t="n">
-        <v>81.87409020811901</v>
+        <v>122.0005007556625</v>
       </c>
       <c r="O11" t="n">
-        <v>122.0005007556625</v>
+        <v>162.126911303206</v>
       </c>
       <c r="P11" t="n">
         <v>162.126911303206</v>
@@ -5063,28 +5063,28 @@
         <v>162.126911303206</v>
       </c>
       <c r="R11" t="n">
-        <v>162.126911303206</v>
+        <v>121.1857720852247</v>
       </c>
       <c r="S11" t="n">
-        <v>162.126911303206</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="T11" t="n">
-        <v>162.126911303206</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="U11" t="n">
-        <v>162.126911303206</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="V11" t="n">
-        <v>162.126911303206</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="W11" t="n">
-        <v>121.1857720852247</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="X11" t="n">
-        <v>80.24463286724335</v>
+        <v>85.12481666202672</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.24463286724335</v>
+        <v>44.18367744404542</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.18367744404542</v>
+        <v>80.24463286724335</v>
       </c>
       <c r="C12" t="n">
-        <v>3.242538226064119</v>
+        <v>80.24463286724335</v>
       </c>
       <c r="D12" t="n">
-        <v>3.242538226064119</v>
+        <v>80.24463286724335</v>
       </c>
       <c r="E12" t="n">
-        <v>3.242538226064119</v>
+        <v>39.30349364926205</v>
       </c>
       <c r="F12" t="n">
         <v>3.242538226064119</v>
@@ -5121,16 +5121,16 @@
         <v>3.242538226064119</v>
       </c>
       <c r="K12" t="n">
+        <v>3.242538226064119</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.242538226064119</v>
+      </c>
+      <c r="M12" t="n">
         <v>43.36894877360759</v>
       </c>
-      <c r="L12" t="n">
-        <v>43.36894877360759</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>81.87409020811901</v>
-      </c>
-      <c r="N12" t="n">
-        <v>122.0005007556625</v>
       </c>
       <c r="O12" t="n">
         <v>122.0005007556625</v>
@@ -5145,25 +5145,25 @@
         <v>162.126911303206</v>
       </c>
       <c r="S12" t="n">
-        <v>126.065955880008</v>
+        <v>162.126911303206</v>
       </c>
       <c r="T12" t="n">
-        <v>126.065955880008</v>
+        <v>162.126911303206</v>
       </c>
       <c r="U12" t="n">
-        <v>126.065955880008</v>
+        <v>162.126911303206</v>
       </c>
       <c r="V12" t="n">
-        <v>85.12481666202672</v>
+        <v>162.126911303206</v>
       </c>
       <c r="W12" t="n">
-        <v>85.12481666202672</v>
+        <v>162.126911303206</v>
       </c>
       <c r="X12" t="n">
-        <v>85.12481666202672</v>
+        <v>162.126911303206</v>
       </c>
       <c r="Y12" t="n">
-        <v>85.12481666202672</v>
+        <v>121.1857720852247</v>
       </c>
     </row>
     <row r="13">
@@ -5188,16 +5188,16 @@
         <v>162.126911303206</v>
       </c>
       <c r="G13" t="n">
-        <v>121.1857720852247</v>
+        <v>138.4687766995414</v>
       </c>
       <c r="H13" t="n">
-        <v>80.24463286724335</v>
+        <v>97.52763748156011</v>
       </c>
       <c r="I13" t="n">
-        <v>39.30349364926205</v>
+        <v>56.5864982635788</v>
       </c>
       <c r="J13" t="n">
-        <v>3.242538226064119</v>
+        <v>15.6453590455975</v>
       </c>
       <c r="K13" t="n">
         <v>3.242538226064119</v>
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="C14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="D14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="E14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="F14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="G14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="H14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="I14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="J14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="K14" t="n">
-        <v>81.80955985610314</v>
+        <v>81.80955985610316</v>
       </c>
       <c r="L14" t="n">
         <v>154.4442158031106</v>
@@ -5294,34 +5294,34 @@
         <v>230.13717305315</v>
       </c>
       <c r="P14" t="n">
-        <v>305.8301303031893</v>
+        <v>305.8301303031894</v>
       </c>
       <c r="Q14" t="n">
-        <v>305.8301303031893</v>
+        <v>305.8301303031894</v>
       </c>
       <c r="R14" t="n">
-        <v>228.6002994185455</v>
+        <v>237.8060952599952</v>
       </c>
       <c r="S14" t="n">
-        <v>151.3704685339018</v>
+        <v>237.8060952599952</v>
       </c>
       <c r="T14" t="n">
-        <v>74.140637649258</v>
+        <v>237.8060952599952</v>
       </c>
       <c r="U14" t="n">
-        <v>6.116602606063786</v>
+        <v>237.8060952599952</v>
       </c>
       <c r="V14" t="n">
-        <v>6.116602606063786</v>
+        <v>237.8060952599952</v>
       </c>
       <c r="W14" t="n">
-        <v>6.116602606063786</v>
+        <v>160.5762643753514</v>
       </c>
       <c r="X14" t="n">
-        <v>6.116602606063786</v>
+        <v>83.34643349070758</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>83.34643349070758</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.116602606063788</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.116602606063788</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.116602606063788</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.116602606063788</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.116602606063788</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.116602606063788</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.116602606063788</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.116602606063788</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.116602606063788</v>
+      </c>
+      <c r="L15" t="n">
+        <v>81.80955985610316</v>
+      </c>
+      <c r="M15" t="n">
+        <v>154.4442158031106</v>
+      </c>
+      <c r="N15" t="n">
+        <v>154.4442158031106</v>
+      </c>
+      <c r="O15" t="n">
+        <v>230.13717305315</v>
+      </c>
+      <c r="P15" t="n">
+        <v>305.8301303031894</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>305.8301303031894</v>
+      </c>
+      <c r="R15" t="n">
+        <v>305.8301303031894</v>
+      </c>
+      <c r="S15" t="n">
+        <v>305.8301303031894</v>
+      </c>
+      <c r="T15" t="n">
+        <v>305.8301303031894</v>
+      </c>
+      <c r="U15" t="n">
+        <v>305.8301303031894</v>
+      </c>
+      <c r="V15" t="n">
+        <v>305.8301303031894</v>
+      </c>
+      <c r="W15" t="n">
+        <v>305.8301303031894</v>
+      </c>
+      <c r="X15" t="n">
+        <v>228.6002994185456</v>
+      </c>
+      <c r="Y15" t="n">
         <v>151.3704685339018</v>
-      </c>
-      <c r="C15" t="n">
-        <v>74.140637649258</v>
-      </c>
-      <c r="D15" t="n">
-        <v>74.140637649258</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.116602606063786</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6.116602606063786</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.116602606063786</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6.116602606063786</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.116602606063786</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.116602606063786</v>
-      </c>
-      <c r="K15" t="n">
-        <v>81.80955985610314</v>
-      </c>
-      <c r="L15" t="n">
-        <v>81.80955985610314</v>
-      </c>
-      <c r="M15" t="n">
-        <v>85.04965728978134</v>
-      </c>
-      <c r="N15" t="n">
-        <v>160.7426145398207</v>
-      </c>
-      <c r="O15" t="n">
-        <v>236.43557178986</v>
-      </c>
-      <c r="P15" t="n">
-        <v>236.43557178986</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>305.8301303031893</v>
-      </c>
-      <c r="R15" t="n">
-        <v>305.8301303031893</v>
-      </c>
-      <c r="S15" t="n">
-        <v>228.6002994185455</v>
-      </c>
-      <c r="T15" t="n">
-        <v>228.6002994185455</v>
-      </c>
-      <c r="U15" t="n">
-        <v>228.6002994185455</v>
-      </c>
-      <c r="V15" t="n">
-        <v>228.6002994185455</v>
-      </c>
-      <c r="W15" t="n">
-        <v>228.6002994185455</v>
-      </c>
-      <c r="X15" t="n">
-        <v>228.6002994185455</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>228.6002994185455</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>299.8118887931043</v>
+        <v>222.5820579084606</v>
       </c>
       <c r="C16" t="n">
-        <v>299.8118887931043</v>
+        <v>222.5820579084606</v>
       </c>
       <c r="D16" t="n">
-        <v>299.8118887931043</v>
+        <v>222.5820579084606</v>
       </c>
       <c r="E16" t="n">
-        <v>299.8118887931043</v>
+        <v>222.5820579084606</v>
       </c>
       <c r="F16" t="n">
-        <v>299.8118887931043</v>
+        <v>222.5820579084606</v>
       </c>
       <c r="G16" t="n">
-        <v>222.5820579084605</v>
+        <v>222.5820579084606</v>
       </c>
       <c r="H16" t="n">
         <v>145.3522270238168</v>
       </c>
       <c r="I16" t="n">
-        <v>68.12239613917299</v>
+        <v>68.12239613917301</v>
       </c>
       <c r="J16" t="n">
-        <v>6.116602606063786</v>
+        <v>6.116602606063788</v>
       </c>
       <c r="K16" t="n">
-        <v>15.72351577214549</v>
+        <v>15.7235157721455</v>
       </c>
       <c r="L16" t="n">
         <v>74.69135085356419</v>
       </c>
       <c r="M16" t="n">
-        <v>145.533099119492</v>
+        <v>145.5330991194921</v>
       </c>
       <c r="N16" t="n">
-        <v>220.877659848634</v>
+        <v>220.8776598486341</v>
       </c>
       <c r="O16" t="n">
         <v>276.8706465572391</v>
       </c>
       <c r="P16" t="n">
-        <v>305.8301303031893</v>
+        <v>305.8301303031894</v>
       </c>
       <c r="Q16" t="n">
-        <v>305.8301303031893</v>
+        <v>305.8301303031894</v>
       </c>
       <c r="R16" t="n">
-        <v>305.8301303031893</v>
+        <v>305.8301303031894</v>
       </c>
       <c r="S16" t="n">
-        <v>299.8118887931043</v>
+        <v>305.8301303031894</v>
       </c>
       <c r="T16" t="n">
-        <v>299.8118887931043</v>
+        <v>228.6002994185456</v>
       </c>
       <c r="U16" t="n">
-        <v>299.8118887931043</v>
+        <v>228.6002994185456</v>
       </c>
       <c r="V16" t="n">
-        <v>299.8118887931043</v>
+        <v>222.5820579084606</v>
       </c>
       <c r="W16" t="n">
-        <v>299.8118887931043</v>
+        <v>222.5820579084606</v>
       </c>
       <c r="X16" t="n">
-        <v>299.8118887931043</v>
+        <v>222.5820579084606</v>
       </c>
       <c r="Y16" t="n">
-        <v>299.8118887931043</v>
+        <v>222.5820579084606</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.72081713686915</v>
+        <v>300.1760117152461</v>
       </c>
       <c r="C17" t="n">
-        <v>7.72081713686915</v>
+        <v>202.6909468557872</v>
       </c>
       <c r="D17" t="n">
-        <v>7.72081713686915</v>
+        <v>105.2058819963282</v>
       </c>
       <c r="E17" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="F17" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="G17" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="H17" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="I17" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="J17" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="K17" t="n">
         <v>103.2659292056249</v>
       </c>
       <c r="L17" t="n">
-        <v>198.8110412743806</v>
+        <v>194.9506327059461</v>
       </c>
       <c r="M17" t="n">
-        <v>198.8110412743806</v>
+        <v>194.9506327059461</v>
       </c>
       <c r="N17" t="n">
-        <v>200.8356894826508</v>
+        <v>290.4957447747018</v>
       </c>
       <c r="O17" t="n">
-        <v>296.3808015514065</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="P17" t="n">
-        <v>386.0408568434575</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="Q17" t="n">
-        <v>386.0408568434575</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="R17" t="n">
-        <v>300.1760117152461</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="S17" t="n">
-        <v>202.6909468557871</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="T17" t="n">
-        <v>105.2058819963281</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="U17" t="n">
-        <v>7.72081713686915</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="V17" t="n">
-        <v>7.72081713686915</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="W17" t="n">
-        <v>7.72081713686915</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="X17" t="n">
-        <v>7.72081713686915</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.72081713686915</v>
+        <v>386.0408568434576</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24.71254142291039</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="C18" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="D18" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="E18" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="F18" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="G18" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="H18" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="I18" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="J18" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="K18" t="n">
         <v>103.2659292056249</v>
       </c>
       <c r="L18" t="n">
-        <v>125.5560741926168</v>
+        <v>198.8110412743807</v>
       </c>
       <c r="M18" t="n">
-        <v>125.5560741926168</v>
+        <v>294.3561533431364</v>
       </c>
       <c r="N18" t="n">
-        <v>221.1011862613725</v>
+        <v>294.3561533431364</v>
       </c>
       <c r="O18" t="n">
-        <v>316.6462983301282</v>
+        <v>294.3561533431364</v>
       </c>
       <c r="P18" t="n">
-        <v>316.6462983301282</v>
+        <v>316.6462983301283</v>
       </c>
       <c r="Q18" t="n">
-        <v>386.0408568434575</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="R18" t="n">
-        <v>317.1677360012873</v>
+        <v>386.0408568434576</v>
       </c>
       <c r="S18" t="n">
-        <v>219.6826711418283</v>
+        <v>288.5557919839986</v>
       </c>
       <c r="T18" t="n">
-        <v>122.1976062823694</v>
+        <v>288.5557919839986</v>
       </c>
       <c r="U18" t="n">
-        <v>24.71254142291039</v>
+        <v>288.5557919839986</v>
       </c>
       <c r="V18" t="n">
-        <v>24.71254142291039</v>
+        <v>288.5557919839986</v>
       </c>
       <c r="W18" t="n">
-        <v>24.71254142291039</v>
+        <v>288.5557919839986</v>
       </c>
       <c r="X18" t="n">
-        <v>24.71254142291039</v>
+        <v>191.0707271245396</v>
       </c>
       <c r="Y18" t="n">
-        <v>24.71254142291039</v>
+        <v>93.58566226508064</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.2133216585763</v>
+        <v>14.97915025561761</v>
       </c>
       <c r="C19" t="n">
-        <v>155.2133216585763</v>
+        <v>14.97915025561761</v>
       </c>
       <c r="D19" t="n">
-        <v>155.2133216585763</v>
+        <v>14.97915025561761</v>
       </c>
       <c r="E19" t="n">
-        <v>57.72825679911729</v>
+        <v>14.97915025561761</v>
       </c>
       <c r="F19" t="n">
-        <v>57.72825679911729</v>
+        <v>14.97915025561761</v>
       </c>
       <c r="G19" t="n">
-        <v>57.72825679911729</v>
+        <v>14.97915025561761</v>
       </c>
       <c r="H19" t="n">
-        <v>7.72081713686915</v>
+        <v>14.97915025561761</v>
       </c>
       <c r="I19" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="J19" t="n">
-        <v>7.72081713686915</v>
+        <v>7.720817136869153</v>
       </c>
       <c r="K19" t="n">
         <v>17.32773030295083</v>
@@ -5692,31 +5692,31 @@
         <v>307.4343448339946</v>
       </c>
       <c r="Q19" t="n">
-        <v>252.6983865180352</v>
+        <v>307.4343448339946</v>
       </c>
       <c r="R19" t="n">
-        <v>252.6983865180352</v>
+        <v>307.4343448339946</v>
       </c>
       <c r="S19" t="n">
-        <v>155.2133216585763</v>
+        <v>307.4343448339946</v>
       </c>
       <c r="T19" t="n">
-        <v>155.2133216585763</v>
+        <v>307.4343448339946</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2133216585763</v>
+        <v>209.9492799745356</v>
       </c>
       <c r="V19" t="n">
-        <v>155.2133216585763</v>
+        <v>209.9492799745356</v>
       </c>
       <c r="W19" t="n">
-        <v>155.2133216585763</v>
+        <v>112.4642151150766</v>
       </c>
       <c r="X19" t="n">
-        <v>155.2133216585763</v>
+        <v>112.4642151150766</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.2133216585763</v>
+        <v>112.4642151150766</v>
       </c>
     </row>
     <row r="20">
@@ -5783,19 +5783,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>742.4690662288767</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>742.4690662288767</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>499.0202895847767</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>255.5715129406766</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>414.7518606799426</v>
+        <v>206.7882869101297</v>
       </c>
       <c r="C21" t="n">
-        <v>272.5952400037597</v>
+        <v>206.7882869101297</v>
       </c>
       <c r="D21" t="n">
-        <v>272.5952400037597</v>
+        <v>206.7882869101297</v>
       </c>
       <c r="E21" t="n">
-        <v>272.5952400037597</v>
+        <v>206.7882869101297</v>
       </c>
       <c r="F21" t="n">
-        <v>158.3570906355887</v>
+        <v>206.7882869101297</v>
       </c>
       <c r="G21" t="n">
-        <v>158.3570906355887</v>
+        <v>100.3538700976893</v>
       </c>
       <c r="H21" t="n">
-        <v>77.28436364811216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>895.184034668466</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>895.184034668466</v>
       </c>
       <c r="T21" t="n">
-        <v>794.1669694743464</v>
+        <v>760.5753731071782</v>
       </c>
       <c r="U21" t="n">
-        <v>636.6928088032003</v>
+        <v>564.6481634485112</v>
       </c>
       <c r="V21" t="n">
-        <v>636.6928088032003</v>
+        <v>564.6481634485112</v>
       </c>
       <c r="W21" t="n">
-        <v>414.7518606799426</v>
+        <v>342.7072153252537</v>
       </c>
       <c r="X21" t="n">
-        <v>414.7518606799426</v>
+        <v>342.7072153252537</v>
       </c>
       <c r="Y21" t="n">
-        <v>414.7518606799426</v>
+        <v>342.7072153252537</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>817.2693304012677</v>
+        <v>664.3436278135108</v>
       </c>
       <c r="C22" t="n">
-        <v>817.2693304012677</v>
+        <v>664.3436278135108</v>
       </c>
       <c r="D22" t="n">
-        <v>817.2693304012677</v>
+        <v>664.3436278135108</v>
       </c>
       <c r="E22" t="n">
-        <v>801.7350771464039</v>
+        <v>664.3436278135108</v>
       </c>
       <c r="F22" t="n">
-        <v>801.7350771464039</v>
+        <v>664.3436278135108</v>
       </c>
       <c r="G22" t="n">
         <v>664.3436278135108</v>
@@ -5932,28 +5932,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>817.2693304012677</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>817.2693304012677</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>817.2693304012677</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>817.2693304012677</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>817.2693304012677</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>817.2693304012677</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X22" t="n">
-        <v>817.2693304012677</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y22" t="n">
-        <v>817.2693304012677</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1067.501246900735</v>
+        <v>797.9302249561051</v>
       </c>
       <c r="C23" t="n">
-        <v>1067.501246900735</v>
+        <v>528.3592030114751</v>
       </c>
       <c r="D23" t="n">
-        <v>1067.501246900735</v>
+        <v>258.788181066845</v>
       </c>
       <c r="E23" t="n">
-        <v>1006.221145893699</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="F23" t="n">
-        <v>736.6501239490686</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="G23" t="n">
-        <v>467.0791020044385</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="H23" t="n">
-        <v>197.5080800598084</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="I23" t="n">
         <v>21.35002493801471</v>
       </c>
       <c r="J23" t="n">
-        <v>45.23884932678014</v>
+        <v>45.23884932678004</v>
       </c>
       <c r="K23" t="n">
-        <v>148.2538552377025</v>
+        <v>148.2538552377024</v>
       </c>
       <c r="L23" t="n">
-        <v>328.3297068223611</v>
+        <v>328.329706822361</v>
       </c>
       <c r="M23" t="n">
-        <v>545.3053340852653</v>
+        <v>545.3053340852651</v>
       </c>
       <c r="N23" t="n">
-        <v>767.0997919887719</v>
+        <v>786.8784771423364</v>
       </c>
       <c r="O23" t="n">
-        <v>916.29474213142</v>
+        <v>952.0133629812517</v>
       </c>
       <c r="P23" t="n">
         <v>1041.673418273303</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.77781625059228</v>
+        <v>295.6880784764162</v>
       </c>
       <c r="C24" t="n">
-        <v>21.35002493801471</v>
+        <v>157.6789027304711</v>
       </c>
       <c r="D24" t="n">
-        <v>21.35002493801471</v>
+        <v>75.20580054567628</v>
       </c>
       <c r="E24" t="n">
-        <v>21.35002493801471</v>
+        <v>75.20580054567628</v>
       </c>
       <c r="F24" t="n">
-        <v>21.35002493801471</v>
+        <v>75.20580054567628</v>
       </c>
       <c r="G24" t="n">
-        <v>21.35002493801471</v>
+        <v>75.20580054567628</v>
       </c>
       <c r="H24" t="n">
-        <v>21.35002493801471</v>
+        <v>75.20580054567628</v>
       </c>
       <c r="I24" t="n">
         <v>21.35002493801471</v>
@@ -6069,19 +6069,19 @@
         <v>21.35002493801471</v>
       </c>
       <c r="K24" t="n">
-        <v>146.7075849958521</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="L24" t="n">
-        <v>146.7075849958521</v>
+        <v>251.3131308063639</v>
       </c>
       <c r="M24" t="n">
-        <v>410.9141436037841</v>
+        <v>485.1467156955117</v>
       </c>
       <c r="N24" t="n">
-        <v>675.120702211716</v>
+        <v>749.3532743034436</v>
       </c>
       <c r="O24" t="n">
-        <v>923.8741162956783</v>
+        <v>998.1066883874058</v>
       </c>
       <c r="P24" t="n">
         <v>998.1066883874058</v>
@@ -6093,25 +6093,25 @@
         <v>1002.775570988803</v>
       </c>
       <c r="S24" t="n">
-        <v>865.8020799746537</v>
+        <v>1002.775570988803</v>
       </c>
       <c r="T24" t="n">
-        <v>700.0593388686017</v>
+        <v>837.0328298827509</v>
       </c>
       <c r="U24" t="n">
-        <v>508.2795741401727</v>
+        <v>645.2530651543219</v>
       </c>
       <c r="V24" t="n">
-        <v>309.571319443612</v>
+        <v>645.2530651543219</v>
       </c>
       <c r="W24" t="n">
-        <v>91.77781625059228</v>
+        <v>427.4595619613023</v>
       </c>
       <c r="X24" t="n">
-        <v>91.77781625059228</v>
+        <v>427.4595619613023</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.77781625059228</v>
+        <v>427.4595619613023</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="C25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="D25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="E25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="F25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="G25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="H25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="I25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="J25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="K25" t="n">
-        <v>757.0700784890607</v>
+        <v>35.02184888022251</v>
       </c>
       <c r="L25" t="n">
-        <v>820.1028243466055</v>
+        <v>98.0545947377673</v>
       </c>
       <c r="M25" t="n">
-        <v>895.0094833886595</v>
+        <v>172.9612537798213</v>
       </c>
       <c r="N25" t="n">
-        <v>974.4189548939277</v>
+        <v>252.3707252850895</v>
       </c>
       <c r="O25" t="n">
-        <v>1034.476852378659</v>
+        <v>312.4286227698205</v>
       </c>
       <c r="P25" t="n">
-        <v>1067.501246900735</v>
+        <v>345.4530172918969</v>
       </c>
       <c r="Q25" t="n">
-        <v>1067.501246900735</v>
+        <v>345.4530172918969</v>
       </c>
       <c r="R25" t="n">
-        <v>1067.501246900735</v>
+        <v>345.4530172918969</v>
       </c>
       <c r="S25" t="n">
-        <v>961.6388892175579</v>
+        <v>345.4530172918969</v>
       </c>
       <c r="T25" t="n">
-        <v>961.6388892175579</v>
+        <v>151.6488006975016</v>
       </c>
       <c r="U25" t="n">
-        <v>961.6388892175579</v>
+        <v>151.6488006975016</v>
       </c>
       <c r="V25" t="n">
-        <v>743.398254546853</v>
+        <v>151.6488006975016</v>
       </c>
       <c r="W25" t="n">
-        <v>743.398254546853</v>
+        <v>151.6488006975016</v>
       </c>
       <c r="X25" t="n">
-        <v>743.398254546853</v>
+        <v>151.6488006975016</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.398254546853</v>
+        <v>21.35002493801471</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21.35002493801471</v>
+        <v>528.3592030114751</v>
       </c>
       <c r="C26" t="n">
-        <v>21.35002493801471</v>
+        <v>290.9210468826448</v>
       </c>
       <c r="D26" t="n">
-        <v>21.35002493801471</v>
+        <v>290.9210468826448</v>
       </c>
       <c r="E26" t="n">
-        <v>21.35002493801471</v>
+        <v>290.9210468826448</v>
       </c>
       <c r="F26" t="n">
-        <v>21.35002493801471</v>
+        <v>290.9210468826448</v>
       </c>
       <c r="G26" t="n">
-        <v>21.35002493801471</v>
+        <v>290.9210468826448</v>
       </c>
       <c r="H26" t="n">
         <v>21.35002493801471</v>
@@ -6227,19 +6227,19 @@
         <v>21.35002493801471</v>
       </c>
       <c r="K26" t="n">
-        <v>160.0836516987688</v>
+        <v>124.3650308489371</v>
       </c>
       <c r="L26" t="n">
-        <v>340.1595032834274</v>
+        <v>340.1595032834275</v>
       </c>
       <c r="M26" t="n">
-        <v>557.1351305463315</v>
+        <v>592.8537513961635</v>
       </c>
       <c r="N26" t="n">
-        <v>762.9896527535709</v>
+        <v>798.7082736034029</v>
       </c>
       <c r="O26" t="n">
-        <v>947.9032237460508</v>
+        <v>977.8411916086842</v>
       </c>
       <c r="P26" t="n">
         <v>1067.501246900735</v>
@@ -6248,28 +6248,28 @@
         <v>1067.501246900735</v>
       </c>
       <c r="R26" t="n">
-        <v>952.5621530206145</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="S26" t="n">
-        <v>777.8746231353466</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="T26" t="n">
-        <v>588.9691336764565</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="U26" t="n">
-        <v>371.5284893249349</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="V26" t="n">
-        <v>101.9574673803048</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="W26" t="n">
-        <v>21.35002493801471</v>
+        <v>797.9302249561051</v>
       </c>
       <c r="X26" t="n">
-        <v>21.35002493801471</v>
+        <v>797.9302249561051</v>
       </c>
       <c r="Y26" t="n">
-        <v>21.35002493801471</v>
+        <v>528.3592030114751</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.3650560936746</v>
+        <v>375.5838649171635</v>
       </c>
       <c r="C27" t="n">
-        <v>323.3558803477296</v>
+        <v>375.5838649171635</v>
       </c>
       <c r="D27" t="n">
-        <v>323.3558803477296</v>
+        <v>375.5838649171635</v>
       </c>
       <c r="E27" t="n">
-        <v>200.562278877456</v>
+        <v>254.4180544851175</v>
       </c>
       <c r="F27" t="n">
-        <v>200.562278877456</v>
+        <v>254.4180544851175</v>
       </c>
       <c r="G27" t="n">
-        <v>98.27530699525343</v>
+        <v>152.131082602915</v>
       </c>
       <c r="H27" t="n">
-        <v>21.35002493801471</v>
+        <v>75.20580054567628</v>
       </c>
       <c r="I27" t="n">
         <v>21.35002493801471</v>
@@ -6306,49 +6306,49 @@
         <v>21.35002493801471</v>
       </c>
       <c r="K27" t="n">
-        <v>38.29667947422877</v>
+        <v>146.7075849958521</v>
       </c>
       <c r="L27" t="n">
-        <v>38.29667947422877</v>
+        <v>146.7075849958521</v>
       </c>
       <c r="M27" t="n">
-        <v>302.5032380821607</v>
+        <v>410.9141436037841</v>
       </c>
       <c r="N27" t="n">
-        <v>566.7097966900926</v>
+        <v>675.120702211716</v>
       </c>
       <c r="O27" t="n">
-        <v>815.4632107740549</v>
+        <v>884.8577692873844</v>
       </c>
       <c r="P27" t="n">
-        <v>998.1066883874058</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="Q27" t="n">
         <v>1067.501246900735</v>
       </c>
       <c r="R27" t="n">
-        <v>1049.274460653606</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="S27" t="n">
-        <v>1049.274460653606</v>
+        <v>930.527755886586</v>
       </c>
       <c r="T27" t="n">
-        <v>1049.274460653606</v>
+        <v>764.785014780534</v>
       </c>
       <c r="U27" t="n">
-        <v>1049.274460653606</v>
+        <v>764.785014780534</v>
       </c>
       <c r="V27" t="n">
-        <v>850.5662059570452</v>
+        <v>764.785014780534</v>
       </c>
       <c r="W27" t="n">
-        <v>632.7727027640256</v>
+        <v>546.9915115875143</v>
       </c>
       <c r="X27" t="n">
-        <v>461.3650560936746</v>
+        <v>375.5838649171635</v>
       </c>
       <c r="Y27" t="n">
-        <v>461.3650560936746</v>
+        <v>375.5838649171635</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.9073199290615</v>
+        <v>345.4530172918969</v>
       </c>
       <c r="C28" t="n">
-        <v>21.41499053633657</v>
+        <v>345.4530172918969</v>
       </c>
       <c r="D28" t="n">
-        <v>21.41499053633657</v>
+        <v>231.7802314147431</v>
       </c>
       <c r="E28" t="n">
-        <v>21.41499053633657</v>
+        <v>120.310991367532</v>
       </c>
       <c r="F28" t="n">
-        <v>21.41499053633657</v>
+        <v>120.310991367532</v>
       </c>
       <c r="G28" t="n">
-        <v>21.35002493801471</v>
+        <v>120.310991367532</v>
       </c>
       <c r="H28" t="n">
-        <v>21.35002493801471</v>
+        <v>79.20837354088607</v>
       </c>
       <c r="I28" t="n">
-        <v>21.35002493801471</v>
+        <v>79.20837354088607</v>
       </c>
       <c r="J28" t="n">
         <v>21.35002493801471</v>
@@ -6424,10 +6424,10 @@
         <v>345.4530172918969</v>
       </c>
       <c r="X28" t="n">
-        <v>153.9073199290615</v>
+        <v>345.4530172918969</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.9073199290615</v>
+        <v>345.4530172918969</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>698.9258694153066</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="C29" t="n">
-        <v>698.9258694153066</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="D29" t="n">
-        <v>448.6710529066067</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="E29" t="n">
-        <v>448.6710529066067</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="F29" t="n">
-        <v>256.242983360941</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="G29" t="n">
-        <v>256.242983360941</v>
+        <v>21.35002493801471</v>
       </c>
       <c r="H29" t="n">
         <v>21.35002493801471</v>
@@ -6488,25 +6488,25 @@
         <v>1067.501246900735</v>
       </c>
       <c r="S29" t="n">
-        <v>964.3807455783359</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="T29" t="n">
-        <v>964.3807455783359</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="U29" t="n">
-        <v>964.3807455783359</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="V29" t="n">
-        <v>964.3807455783359</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="W29" t="n">
-        <v>964.3807455783359</v>
+        <v>825.9469449903042</v>
       </c>
       <c r="X29" t="n">
-        <v>698.9258694153066</v>
+        <v>560.4920688272749</v>
       </c>
       <c r="Y29" t="n">
-        <v>698.9258694153066</v>
+        <v>290.9210468826448</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>254.5441452804649</v>
+        <v>254.5441452804647</v>
       </c>
       <c r="C30" t="n">
-        <v>188.1019980973886</v>
+        <v>188.1019980973883</v>
       </c>
       <c r="D30" t="n">
-        <v>147.1784705341879</v>
+        <v>147.1784705341877</v>
       </c>
       <c r="E30" t="n">
-        <v>95.95189762678308</v>
+        <v>95.95189762678282</v>
       </c>
       <c r="F30" t="n">
-        <v>57.4282217517186</v>
+        <v>57.42822175171841</v>
       </c>
       <c r="G30" t="n">
         <v>26.70827843238475</v>
@@ -6543,22 +6543,22 @@
         <v>21.35002493801471</v>
       </c>
       <c r="K30" t="n">
-        <v>21.35002493801471</v>
+        <v>146.7075849958521</v>
       </c>
       <c r="L30" t="n">
-        <v>251.3131308063639</v>
+        <v>376.6706908642012</v>
       </c>
       <c r="M30" t="n">
-        <v>371.8977965954901</v>
+        <v>640.8772494721331</v>
       </c>
       <c r="N30" t="n">
-        <v>636.1043552034221</v>
+        <v>905.0838080800651</v>
       </c>
       <c r="O30" t="n">
-        <v>884.8577692873844</v>
+        <v>998.1066883874058</v>
       </c>
       <c r="P30" t="n">
-        <v>1067.501246900735</v>
+        <v>998.1066883874058</v>
       </c>
       <c r="Q30" t="n">
         <v>1067.501246900735</v>
@@ -6570,22 +6570,22 @@
         <v>1002.094784449455</v>
       </c>
       <c r="T30" t="n">
-        <v>907.9190719062714</v>
+        <v>907.9190719062711</v>
       </c>
       <c r="U30" t="n">
-        <v>787.706335740711</v>
+        <v>787.7063357407108</v>
       </c>
       <c r="V30" t="n">
-        <v>660.5651096070189</v>
+        <v>660.5651096070187</v>
       </c>
       <c r="W30" t="n">
-        <v>514.3386349768679</v>
+        <v>514.3386349768676</v>
       </c>
       <c r="X30" t="n">
-        <v>414.4980168693857</v>
+        <v>414.4980168693855</v>
       </c>
       <c r="Y30" t="n">
-        <v>314.7486002024824</v>
+        <v>314.7486002024821</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.02700077780122</v>
+        <v>313.8491354527995</v>
       </c>
       <c r="C31" t="n">
-        <v>83.02700077780122</v>
+        <v>252.9238346229432</v>
       </c>
       <c r="D31" t="n">
-        <v>83.02700077780122</v>
+        <v>210.8180773086582</v>
       </c>
       <c r="E31" t="n">
-        <v>83.02700077780122</v>
+        <v>170.9158658243157</v>
       </c>
       <c r="F31" t="n">
-        <v>83.02700077780122</v>
+        <v>132.0368004244559</v>
       </c>
       <c r="G31" t="n">
-        <v>21.35002493801471</v>
+        <v>70.35982458466943</v>
       </c>
       <c r="H31" t="n">
-        <v>21.35002493801471</v>
+        <v>70.35982458466943</v>
       </c>
       <c r="I31" t="n">
         <v>21.35002493801471</v>
@@ -6646,25 +6646,25 @@
         <v>800.3070054126179</v>
       </c>
       <c r="S31" t="n">
-        <v>682.0384955541308</v>
+        <v>800.3070054126179</v>
       </c>
       <c r="T31" t="n">
-        <v>682.0384955541308</v>
+        <v>715.5666122317349</v>
       </c>
       <c r="U31" t="n">
-        <v>500.8382368880492</v>
+        <v>715.5666122317349</v>
       </c>
       <c r="V31" t="n">
-        <v>377.2149857621907</v>
+        <v>568.8930061238987</v>
       </c>
       <c r="W31" t="n">
-        <v>195.8086978232807</v>
+        <v>387.4867181849886</v>
       </c>
       <c r="X31" t="n">
-        <v>195.8086978232807</v>
+        <v>387.4867181849886</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.02700077780122</v>
+        <v>387.4867181849886</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>188.3629765314693</v>
+        <v>528.3592030114751</v>
       </c>
       <c r="C32" t="n">
-        <v>188.3629765314693</v>
+        <v>528.3592030114751</v>
       </c>
       <c r="D32" t="n">
-        <v>21.35002493801471</v>
+        <v>278.1043865027752</v>
       </c>
       <c r="E32" t="n">
-        <v>21.35002493801471</v>
+        <v>278.1043865027752</v>
       </c>
       <c r="F32" t="n">
-        <v>21.35002493801471</v>
+        <v>278.1043865027752</v>
       </c>
       <c r="G32" t="n">
-        <v>21.35002493801471</v>
+        <v>278.1043865027752</v>
       </c>
       <c r="H32" t="n">
-        <v>21.35002493801471</v>
+        <v>43.21142807984893</v>
       </c>
       <c r="I32" t="n">
         <v>21.35002493801471</v>
@@ -6701,22 +6701,22 @@
         <v>21.35002493801471</v>
       </c>
       <c r="K32" t="n">
-        <v>129.7695670893341</v>
+        <v>141.6095333879607</v>
       </c>
       <c r="L32" t="n">
-        <v>309.8454186739926</v>
+        <v>405.8160919958926</v>
       </c>
       <c r="M32" t="n">
-        <v>526.8210459368968</v>
+        <v>622.7917192587968</v>
       </c>
       <c r="N32" t="n">
-        <v>732.6755681441362</v>
+        <v>828.6462414660361</v>
       </c>
       <c r="O32" t="n">
-        <v>881.8705182867842</v>
+        <v>977.8411916086842</v>
       </c>
       <c r="P32" t="n">
-        <v>971.5305735788352</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="Q32" t="n">
         <v>1067.501246900735</v>
@@ -6731,19 +6731,19 @@
         <v>1067.501246900735</v>
       </c>
       <c r="U32" t="n">
-        <v>921.6276311120822</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="V32" t="n">
-        <v>698.5756258665622</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="W32" t="n">
-        <v>453.8178526944986</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="X32" t="n">
-        <v>188.3629765314693</v>
+        <v>1067.501246900735</v>
       </c>
       <c r="Y32" t="n">
-        <v>188.3629765314693</v>
+        <v>797.9302249561051</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>254.5441452804649</v>
+        <v>254.5441452804648</v>
       </c>
       <c r="C33" t="n">
-        <v>188.1019980973885</v>
+        <v>188.1019980973884</v>
       </c>
       <c r="D33" t="n">
-        <v>147.1784705341879</v>
+        <v>147.1784705341878</v>
       </c>
       <c r="E33" t="n">
-        <v>95.95189762678308</v>
+        <v>95.95189762678297</v>
       </c>
       <c r="F33" t="n">
         <v>57.4282217517186</v>
@@ -6783,19 +6783,19 @@
         <v>146.7075849958521</v>
       </c>
       <c r="L33" t="n">
-        <v>376.6706908642012</v>
+        <v>146.7075849958521</v>
       </c>
       <c r="M33" t="n">
-        <v>640.8772494721331</v>
+        <v>302.5032380821607</v>
       </c>
       <c r="N33" t="n">
-        <v>640.8772494721331</v>
+        <v>566.7097966900926</v>
       </c>
       <c r="O33" t="n">
-        <v>884.8577692873844</v>
+        <v>815.4632107740549</v>
       </c>
       <c r="P33" t="n">
-        <v>1067.501246900735</v>
+        <v>998.1066883874058</v>
       </c>
       <c r="Q33" t="n">
         <v>1067.501246900735</v>
@@ -6810,19 +6810,19 @@
         <v>907.9190719062713</v>
       </c>
       <c r="U33" t="n">
-        <v>787.706335740711</v>
+        <v>787.7063357407109</v>
       </c>
       <c r="V33" t="n">
-        <v>660.5651096070188</v>
+        <v>660.5651096070187</v>
       </c>
       <c r="W33" t="n">
-        <v>514.3386349768679</v>
+        <v>514.3386349768678</v>
       </c>
       <c r="X33" t="n">
-        <v>414.4980168693857</v>
+        <v>414.4980168693856</v>
       </c>
       <c r="Y33" t="n">
-        <v>314.7486002024823</v>
+        <v>314.7486002024822</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>131.2851254145257</v>
+        <v>190.2655808645459</v>
       </c>
       <c r="C34" t="n">
-        <v>70.35982458466943</v>
+        <v>190.2655808645459</v>
       </c>
       <c r="D34" t="n">
-        <v>70.35982458466943</v>
+        <v>190.2655808645459</v>
       </c>
       <c r="E34" t="n">
-        <v>70.35982458466943</v>
+        <v>150.3633693802035</v>
       </c>
       <c r="F34" t="n">
-        <v>70.35982458466943</v>
+        <v>111.4843039803437</v>
       </c>
       <c r="G34" t="n">
-        <v>70.35982458466943</v>
+        <v>49.80732814055722</v>
       </c>
       <c r="H34" t="n">
-        <v>70.35982458466943</v>
+        <v>49.80732814055722</v>
       </c>
       <c r="I34" t="n">
         <v>21.35002493801471</v>
@@ -6883,25 +6883,25 @@
         <v>800.3070054126179</v>
       </c>
       <c r="S34" t="n">
-        <v>682.0384955541308</v>
+        <v>800.3070054126179</v>
       </c>
       <c r="T34" t="n">
-        <v>682.0384955541308</v>
+        <v>678.0698173810912</v>
       </c>
       <c r="U34" t="n">
-        <v>572.1467165067514</v>
+        <v>678.0698173810912</v>
       </c>
       <c r="V34" t="n">
-        <v>425.4731103989152</v>
+        <v>678.0698173810912</v>
       </c>
       <c r="W34" t="n">
-        <v>244.0668224600052</v>
+        <v>496.6635294421812</v>
       </c>
       <c r="X34" t="n">
-        <v>244.0668224600052</v>
+        <v>376.6848606422145</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.2851254145257</v>
+        <v>263.903163596735</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.9897523449354</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="C35" t="n">
-        <v>315.9897523449354</v>
+        <v>703.9971348918964</v>
       </c>
       <c r="D35" t="n">
-        <v>315.9897523449354</v>
+        <v>703.9971348918964</v>
       </c>
       <c r="E35" t="n">
-        <v>315.9897523449354</v>
+        <v>475.3672521652477</v>
       </c>
       <c r="F35" t="n">
-        <v>315.9897523449354</v>
+        <v>475.3672521652477</v>
       </c>
       <c r="G35" t="n">
-        <v>315.9897523449354</v>
+        <v>246.7373694385992</v>
       </c>
       <c r="H35" t="n">
-        <v>122.6985132708756</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="I35" t="n">
-        <v>18.10748671195058</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="J35" t="n">
-        <v>18.10748671195058</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="K35" t="n">
-        <v>121.1224926228729</v>
+        <v>63.61332910802724</v>
       </c>
       <c r="L35" t="n">
-        <v>301.1983442075315</v>
+        <v>243.6891806926858</v>
       </c>
       <c r="M35" t="n">
-        <v>518.1739714704357</v>
+        <v>460.66480795559</v>
       </c>
       <c r="N35" t="n">
-        <v>724.028493677675</v>
+        <v>666.5193301628293</v>
       </c>
       <c r="O35" t="n">
-        <v>873.223443820323</v>
+        <v>815.7142803054774</v>
       </c>
       <c r="P35" t="n">
-        <v>905.3743355975291</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="Q35" t="n">
-        <v>905.3743355975291</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="R35" t="n">
-        <v>905.3743355975291</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="S35" t="n">
-        <v>802.2538342751299</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="T35" t="n">
-        <v>684.9153733791084</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="U35" t="n">
-        <v>539.0417575904554</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="V35" t="n">
-        <v>315.9897523449354</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="W35" t="n">
-        <v>315.9897523449354</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="X35" t="n">
-        <v>315.9897523449354</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.9897523449354</v>
+        <v>905.3743355975283</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8236964285396</v>
+        <v>92.41723397725829</v>
       </c>
       <c r="C36" t="n">
-        <v>148.7812630576205</v>
+        <v>25.97508679418191</v>
       </c>
       <c r="D36" t="n">
-        <v>107.8577354944199</v>
+        <v>25.97508679418191</v>
       </c>
       <c r="E36" t="n">
-        <v>56.63116258701498</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="F36" t="n">
-        <v>18.10748671195058</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="G36" t="n">
-        <v>18.10748671195058</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="H36" t="n">
-        <v>18.10748671195058</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="I36" t="n">
-        <v>18.10748671195058</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="J36" t="n">
-        <v>18.10748671195058</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="K36" t="n">
-        <v>50.49041380301293</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="L36" t="n">
-        <v>50.49041380301293</v>
+        <v>242.1876347723388</v>
       </c>
       <c r="M36" t="n">
-        <v>274.5705618634014</v>
+        <v>274.5705618634008</v>
       </c>
       <c r="N36" t="n">
-        <v>498.6507099237899</v>
+        <v>498.6507099237891</v>
       </c>
       <c r="O36" t="n">
-        <v>722.7308579841783</v>
+        <v>722.7308579841774</v>
       </c>
       <c r="P36" t="n">
-        <v>905.3743355975291</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="Q36" t="n">
-        <v>905.3743355975291</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="R36" t="n">
-        <v>905.3743355975291</v>
+        <v>905.3743355975283</v>
       </c>
       <c r="S36" t="n">
-        <v>905.3743355975291</v>
+        <v>839.9678731462478</v>
       </c>
       <c r="T36" t="n">
-        <v>811.1986230543458</v>
+        <v>745.7921606030645</v>
       </c>
       <c r="U36" t="n">
-        <v>690.9858868887856</v>
+        <v>625.5794244375043</v>
       </c>
       <c r="V36" t="n">
-        <v>563.8446607550935</v>
+        <v>498.4381983038122</v>
       </c>
       <c r="W36" t="n">
-        <v>417.6181861249425</v>
+        <v>352.2117236736611</v>
       </c>
       <c r="X36" t="n">
-        <v>317.7775680174603</v>
+        <v>252.371105566179</v>
       </c>
       <c r="Y36" t="n">
-        <v>218.028151350557</v>
+        <v>152.6216888992757</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.996351758465</v>
+        <v>58.00969819629304</v>
       </c>
       <c r="C37" t="n">
-        <v>105.996351758465</v>
+        <v>58.00969819629304</v>
       </c>
       <c r="D37" t="n">
-        <v>105.996351758465</v>
+        <v>58.00969819629304</v>
       </c>
       <c r="E37" t="n">
-        <v>105.996351758465</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="F37" t="n">
-        <v>67.1172863586053</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="G37" t="n">
-        <v>67.1172863586053</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="H37" t="n">
-        <v>67.1172863586053</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="I37" t="n">
-        <v>18.10748671195058</v>
+        <v>18.10748671195057</v>
       </c>
       <c r="J37" t="n">
-        <v>31.54336394074395</v>
+        <v>31.54336394074394</v>
       </c>
       <c r="K37" t="n">
-        <v>115.3580325774194</v>
+        <v>115.3580325774193</v>
       </c>
       <c r="L37" t="n">
-        <v>248.5336231294318</v>
+        <v>248.5336231294317</v>
       </c>
       <c r="M37" t="n">
         <v>393.5831268659533</v>
@@ -7120,25 +7120,25 @@
         <v>725.9911155702916</v>
       </c>
       <c r="S37" t="n">
-        <v>725.9911155702916</v>
+        <v>607.7226057118046</v>
       </c>
       <c r="T37" t="n">
-        <v>603.753927538765</v>
+        <v>607.7226057118046</v>
       </c>
       <c r="U37" t="n">
-        <v>422.5536688726834</v>
+        <v>545.8139347128383</v>
       </c>
       <c r="V37" t="n">
-        <v>407.3813084973417</v>
+        <v>545.8139347128383</v>
       </c>
       <c r="W37" t="n">
-        <v>225.9750205584317</v>
+        <v>364.4076467739283</v>
       </c>
       <c r="X37" t="n">
-        <v>105.996351758465</v>
+        <v>244.4289779739616</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.996351758465</v>
+        <v>131.6472809284821</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>569.3299255375589</v>
+      </c>
+      <c r="C38" t="n">
+        <v>569.3299255375589</v>
+      </c>
+      <c r="D38" t="n">
+        <v>569.3299255375589</v>
+      </c>
+      <c r="E38" t="n">
+        <v>399.9158044519231</v>
+      </c>
+      <c r="F38" t="n">
         <v>207.574613391937</v>
-      </c>
-      <c r="C38" t="n">
-        <v>207.574613391937</v>
-      </c>
-      <c r="D38" t="n">
-        <v>15.2334223319509</v>
-      </c>
-      <c r="E38" t="n">
-        <v>15.2334223319509</v>
-      </c>
-      <c r="F38" t="n">
-        <v>15.2334223319509</v>
       </c>
       <c r="G38" t="n">
         <v>15.2334223319509</v>
@@ -7181,10 +7181,10 @@
         <v>298.3242798275318</v>
       </c>
       <c r="M38" t="n">
-        <v>483.4974599476016</v>
+        <v>334.3025098049535</v>
       </c>
       <c r="N38" t="n">
-        <v>672.011061305494</v>
+        <v>522.8161111628459</v>
       </c>
       <c r="O38" t="n">
         <v>672.011061305494</v>
@@ -7199,25 +7199,25 @@
         <v>761.6711165975449</v>
       </c>
       <c r="S38" t="n">
-        <v>654.4031703449078</v>
+        <v>761.6711165975449</v>
       </c>
       <c r="T38" t="n">
-        <v>532.9172645186485</v>
+        <v>761.6711165975449</v>
       </c>
       <c r="U38" t="n">
-        <v>532.9172645186485</v>
+        <v>761.6711165975449</v>
       </c>
       <c r="V38" t="n">
-        <v>532.9172645186485</v>
+        <v>761.6711165975449</v>
       </c>
       <c r="W38" t="n">
-        <v>532.9172645186485</v>
+        <v>761.6711165975449</v>
       </c>
       <c r="X38" t="n">
-        <v>340.5760734586624</v>
+        <v>569.3299255375589</v>
       </c>
       <c r="Y38" t="n">
-        <v>207.574613391937</v>
+        <v>569.3299255375589</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.44026276914548</v>
+        <v>57.90454313725317</v>
       </c>
       <c r="C39" t="n">
-        <v>49.44026276914548</v>
+        <v>57.90454313725317</v>
       </c>
       <c r="D39" t="n">
-        <v>49.44026276914548</v>
+        <v>57.90454313725317</v>
       </c>
       <c r="E39" t="n">
-        <v>49.44026276914548</v>
+        <v>57.90454313725317</v>
       </c>
       <c r="F39" t="n">
-        <v>49.44026276914548</v>
+        <v>15.2334223319509</v>
       </c>
       <c r="G39" t="n">
         <v>15.2334223319509</v>
@@ -7260,16 +7260,16 @@
         <v>140.5909823897883</v>
       </c>
       <c r="M39" t="n">
-        <v>140.5909823897883</v>
+        <v>202.0004362684092</v>
       </c>
       <c r="N39" t="n">
-        <v>321.1194791129724</v>
+        <v>390.5140376263016</v>
       </c>
       <c r="O39" t="n">
-        <v>509.6330804708647</v>
+        <v>579.027638984194</v>
       </c>
       <c r="P39" t="n">
-        <v>692.2765580842156</v>
+        <v>761.6711165975449</v>
       </c>
       <c r="Q39" t="n">
         <v>761.6711165975449</v>
@@ -7278,25 +7278,25 @@
         <v>761.6711165975449</v>
       </c>
       <c r="S39" t="n">
-        <v>761.6711165975449</v>
+        <v>692.1172092160266</v>
       </c>
       <c r="T39" t="n">
-        <v>663.3479591241237</v>
+        <v>671.8122394922314</v>
       </c>
       <c r="U39" t="n">
-        <v>538.9877780283255</v>
+        <v>547.4520583964331</v>
       </c>
       <c r="V39" t="n">
-        <v>407.6991069643955</v>
+        <v>416.1633873325032</v>
       </c>
       <c r="W39" t="n">
-        <v>257.3251874040067</v>
+        <v>265.7894677721143</v>
       </c>
       <c r="X39" t="n">
-        <v>153.3371243662866</v>
+        <v>161.8014047343943</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.44026276914548</v>
+        <v>57.90454313725317</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>236.4334475211728</v>
+        <v>15.2334223319509</v>
       </c>
       <c r="C40" t="n">
-        <v>171.3607017610786</v>
+        <v>15.2334223319509</v>
       </c>
       <c r="D40" t="n">
-        <v>125.1074995165556</v>
+        <v>15.2334223319509</v>
       </c>
       <c r="E40" t="n">
-        <v>81.05784310197528</v>
+        <v>15.2334223319509</v>
       </c>
       <c r="F40" t="n">
-        <v>81.05784310197528</v>
+        <v>15.2334223319509</v>
       </c>
       <c r="G40" t="n">
         <v>15.2334223319509</v>
@@ -7330,19 +7330,19 @@
         <v>15.2334223319509</v>
       </c>
       <c r="J40" t="n">
-        <v>24.60438878461814</v>
+        <v>24.60438878461815</v>
       </c>
       <c r="K40" t="n">
         <v>104.3541466451674</v>
       </c>
       <c r="L40" t="n">
-        <v>233.4648264210535</v>
+        <v>233.4648264210537</v>
       </c>
       <c r="M40" t="n">
         <v>374.4494193814491</v>
       </c>
       <c r="N40" t="n">
-        <v>519.9368248050588</v>
+        <v>519.9368248050587</v>
       </c>
       <c r="O40" t="n">
         <v>646.0726562081313</v>
@@ -7354,28 +7354,28 @@
         <v>761.6711165975449</v>
       </c>
       <c r="R40" t="n">
-        <v>761.6711165975449</v>
+        <v>686.4503200510451</v>
       </c>
       <c r="S40" t="n">
-        <v>761.6711165975449</v>
+        <v>661.0820235656969</v>
       </c>
       <c r="T40" t="n">
-        <v>761.6711165975449</v>
+        <v>661.0820235656969</v>
       </c>
       <c r="U40" t="n">
-        <v>761.6711165975449</v>
+        <v>475.7343199693775</v>
       </c>
       <c r="V40" t="n">
-        <v>610.8500655594707</v>
+        <v>324.9132689313033</v>
       </c>
       <c r="W40" t="n">
-        <v>425.2963326903229</v>
+        <v>139.3595360621555</v>
       </c>
       <c r="X40" t="n">
-        <v>425.2963326903229</v>
+        <v>15.2334223319509</v>
       </c>
       <c r="Y40" t="n">
-        <v>308.3671907146055</v>
+        <v>15.2334223319509</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>337.288475886935</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="C41" t="n">
-        <v>337.288475886935</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="D41" t="n">
-        <v>337.288475886935</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="E41" t="n">
-        <v>337.288475886935</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="F41" t="n">
-        <v>337.288475886935</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="G41" t="n">
-        <v>304.5452517437064</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="H41" t="n">
-        <v>132.4592946585355</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="I41" t="n">
         <v>13.62920780114554</v>
@@ -7421,10 +7421,10 @@
         <v>453.96710679042</v>
       </c>
       <c r="N41" t="n">
-        <v>532.2654399146288</v>
+        <v>591.8003347652259</v>
       </c>
       <c r="O41" t="n">
-        <v>681.4603900572769</v>
+        <v>591.8003347652259</v>
       </c>
       <c r="P41" t="n">
         <v>681.4603900572769</v>
@@ -7436,25 +7436,25 @@
         <v>681.4603900572769</v>
       </c>
       <c r="S41" t="n">
-        <v>681.4603900572769</v>
+        <v>564.1008284364127</v>
       </c>
       <c r="T41" t="n">
-        <v>681.4603900572769</v>
+        <v>564.1008284364127</v>
       </c>
       <c r="U41" t="n">
-        <v>681.4603900572769</v>
+        <v>403.9881523492949</v>
       </c>
       <c r="V41" t="n">
-        <v>681.4603900572769</v>
+        <v>357.8011219714874</v>
       </c>
       <c r="W41" t="n">
-        <v>681.4603900572769</v>
+        <v>185.7151648863165</v>
       </c>
       <c r="X41" t="n">
-        <v>509.3744329721059</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="Y41" t="n">
-        <v>337.288475886935</v>
+        <v>13.62920780114554</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.62920780114554</v>
+        <v>94.31041528268686</v>
       </c>
       <c r="C42" t="n">
         <v>13.62920780114554</v>
@@ -7491,19 +7491,19 @@
         <v>13.62920780114554</v>
       </c>
       <c r="K42" t="n">
-        <v>138.9867678589829</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="L42" t="n">
-        <v>138.9867678589829</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="M42" t="n">
-        <v>307.648214398159</v>
+        <v>175.4760504397488</v>
       </c>
       <c r="N42" t="n">
-        <v>476.309660937335</v>
+        <v>344.1374969789248</v>
       </c>
       <c r="O42" t="n">
-        <v>644.9711074765111</v>
+        <v>512.7989435181008</v>
       </c>
       <c r="P42" t="n">
         <v>681.4603900572769</v>
@@ -7518,22 +7518,22 @@
         <v>681.4603900572769</v>
       </c>
       <c r="T42" t="n">
-        <v>573.0456172156286</v>
+        <v>598.2106535501845</v>
       </c>
       <c r="U42" t="n">
-        <v>438.5938207516033</v>
+        <v>463.7588570861592</v>
       </c>
       <c r="V42" t="n">
-        <v>297.2135343194462</v>
+        <v>322.3785706540022</v>
       </c>
       <c r="W42" t="n">
-        <v>136.7479993908303</v>
+        <v>322.3785706540022</v>
       </c>
       <c r="X42" t="n">
-        <v>22.66832098488318</v>
+        <v>208.2988922480551</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.62920780114554</v>
+        <v>94.31041528268686</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>212.0057036438013</v>
+        <v>128.9316255526462</v>
       </c>
       <c r="C43" t="n">
-        <v>136.8413425154801</v>
+        <v>53.76726442432496</v>
       </c>
       <c r="D43" t="n">
-        <v>136.8413425154801</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="E43" t="n">
-        <v>136.8413425154801</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="F43" t="n">
-        <v>83.72321681715539</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="G43" t="n">
-        <v>83.72321681715539</v>
+        <v>13.62920780114554</v>
       </c>
       <c r="H43" t="n">
         <v>13.62920780114554</v>
@@ -7591,28 +7591,28 @@
         <v>681.4603900572769</v>
       </c>
       <c r="R43" t="n">
-        <v>681.4603900572769</v>
+        <v>596.14797814255</v>
       </c>
       <c r="S43" t="n">
-        <v>548.9528199003249</v>
+        <v>596.14797814255</v>
       </c>
       <c r="T43" t="n">
-        <v>548.9528199003249</v>
+        <v>596.14797814255</v>
       </c>
       <c r="U43" t="n">
-        <v>376.866862815154</v>
+        <v>424.062021057379</v>
       </c>
       <c r="V43" t="n">
-        <v>376.866862815154</v>
+        <v>263.1493546510778</v>
       </c>
       <c r="W43" t="n">
-        <v>376.866862815154</v>
+        <v>263.1493546510778</v>
       </c>
       <c r="X43" t="n">
-        <v>376.866862815154</v>
+        <v>128.9316255526462</v>
       </c>
       <c r="Y43" t="n">
-        <v>249.8461054712096</v>
+        <v>128.9316255526462</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.98574012028155</v>
+        <v>28.19112712833183</v>
       </c>
       <c r="C44" t="n">
-        <v>14.98574012028155</v>
+        <v>28.19112712833183</v>
       </c>
       <c r="D44" t="n">
-        <v>14.98574012028155</v>
+        <v>28.19112712833183</v>
       </c>
       <c r="E44" t="n">
-        <v>14.13887107488532</v>
+        <v>28.19112712833183</v>
       </c>
       <c r="F44" t="n">
-        <v>14.13887107488532</v>
+        <v>28.19112712833183</v>
       </c>
       <c r="G44" t="n">
-        <v>14.13887107488532</v>
+        <v>28.19112712833183</v>
       </c>
       <c r="H44" t="n">
-        <v>14.13887107488532</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="I44" t="n">
-        <v>14.13887107488532</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="J44" t="n">
-        <v>2.068881827801963</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="K44" t="n">
-        <v>2.068881827801963</v>
+        <v>27.67129444685129</v>
       </c>
       <c r="L44" t="n">
-        <v>27.67129444685126</v>
+        <v>53.27370706590061</v>
       </c>
       <c r="M44" t="n">
-        <v>53.27370706590055</v>
+        <v>78.87611968494993</v>
       </c>
       <c r="N44" t="n">
-        <v>78.87611968494984</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="O44" t="n">
-        <v>103.4440913900982</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="P44" t="n">
-        <v>103.4440913900982</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="Q44" t="n">
-        <v>93.35247602187107</v>
+        <v>93.35247602187118</v>
       </c>
       <c r="R44" t="n">
-        <v>93.35247602187107</v>
+        <v>93.35247602187118</v>
       </c>
       <c r="S44" t="n">
-        <v>93.35247602187107</v>
+        <v>93.35247602187118</v>
       </c>
       <c r="T44" t="n">
-        <v>93.35247602187107</v>
+        <v>93.35247602187118</v>
       </c>
       <c r="U44" t="n">
-        <v>93.35247602187107</v>
+        <v>67.23023072134131</v>
       </c>
       <c r="V44" t="n">
-        <v>93.35247602187107</v>
+        <v>67.23023072134131</v>
       </c>
       <c r="W44" t="n">
-        <v>67.23023072134123</v>
+        <v>41.10798542081145</v>
       </c>
       <c r="X44" t="n">
-        <v>67.23023072134123</v>
+        <v>41.10798542081145</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.10798542081139</v>
+        <v>28.19112712833183</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.068881827801963</v>
+        <v>51.19960078903853</v>
       </c>
       <c r="C45" t="n">
-        <v>2.068881827801963</v>
+        <v>28.19112712833183</v>
       </c>
       <c r="D45" t="n">
-        <v>2.068881827801963</v>
+        <v>28.19112712833183</v>
       </c>
       <c r="E45" t="n">
-        <v>2.068881827801963</v>
+        <v>28.19112712833183</v>
       </c>
       <c r="F45" t="n">
-        <v>2.068881827801963</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="G45" t="n">
-        <v>2.068881827801963</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="H45" t="n">
-        <v>2.068881827801963</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="I45" t="n">
-        <v>2.068881827801963</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="J45" t="n">
-        <v>2.068881827801963</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="K45" t="n">
-        <v>2.068881827801963</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="L45" t="n">
-        <v>27.67129444685126</v>
+        <v>2.068881827801965</v>
       </c>
       <c r="M45" t="n">
-        <v>52.23926615199957</v>
+        <v>27.67129444685129</v>
       </c>
       <c r="N45" t="n">
-        <v>52.23926615199957</v>
+        <v>53.27370706590061</v>
       </c>
       <c r="O45" t="n">
-        <v>52.23926615199957</v>
+        <v>53.27370706590061</v>
       </c>
       <c r="P45" t="n">
-        <v>77.84167877104886</v>
+        <v>78.87611968494993</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.4440913900982</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="R45" t="n">
-        <v>103.4440913900982</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="S45" t="n">
-        <v>103.4440913900982</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="T45" t="n">
-        <v>77.32184608956831</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="U45" t="n">
-        <v>77.32184608956831</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="V45" t="n">
-        <v>77.32184608956831</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="W45" t="n">
-        <v>51.19960078903847</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="X45" t="n">
-        <v>25.07735548850863</v>
+        <v>77.3218460895684</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.07735548850863</v>
+        <v>77.3218460895684</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.19960078903847</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="C46" t="n">
-        <v>51.19960078903847</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="D46" t="n">
-        <v>51.19960078903847</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="E46" t="n">
-        <v>51.19960078903847</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="F46" t="n">
-        <v>51.19960078903847</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="G46" t="n">
-        <v>51.19960078903847</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="H46" t="n">
-        <v>51.19960078903847</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="I46" t="n">
-        <v>50.9142583863413</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="J46" t="n">
-        <v>24.79201308581146</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="K46" t="n">
-        <v>2.297576898050998</v>
+        <v>2.297576898051027</v>
       </c>
       <c r="L46" t="n">
-        <v>27.89998951710029</v>
+        <v>27.89998951710035</v>
       </c>
       <c r="M46" t="n">
-        <v>53.50240213614958</v>
+        <v>53.50240213614967</v>
       </c>
       <c r="N46" t="n">
-        <v>79.10481475519887</v>
+        <v>79.10481475519899</v>
       </c>
       <c r="O46" t="n">
-        <v>103.4440913900982</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="P46" t="n">
-        <v>103.4440913900982</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.4440913900982</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="R46" t="n">
-        <v>103.4440913900982</v>
+        <v>103.4440913900983</v>
       </c>
       <c r="S46" t="n">
-        <v>77.32184608956831</v>
+        <v>77.3218460895684</v>
       </c>
       <c r="T46" t="n">
-        <v>77.32184608956831</v>
+        <v>77.3218460895684</v>
       </c>
       <c r="U46" t="n">
-        <v>77.32184608956831</v>
+        <v>51.19960078903853</v>
       </c>
       <c r="V46" t="n">
-        <v>77.32184608956831</v>
+        <v>51.19960078903853</v>
       </c>
       <c r="W46" t="n">
-        <v>51.19960078903847</v>
+        <v>25.07735548850866</v>
       </c>
       <c r="X46" t="n">
-        <v>51.19960078903847</v>
+        <v>25.07735548850866</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.19960078903847</v>
+        <v>25.07735548850866</v>
       </c>
     </row>
   </sheetData>
@@ -8693,10 +8693,10 @@
         <v>260.6215788707821</v>
       </c>
       <c r="L11" t="n">
-        <v>274.6604972270695</v>
+        <v>276.2981427957887</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>269.240315484355</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -8705,7 +8705,7 @@
         <v>270.6299392474882</v>
       </c>
       <c r="P11" t="n">
-        <v>271.7647235810711</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>178.3731668001605</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>181.0281161791006</v>
+        <v>182.6657617478198</v>
       </c>
       <c r="N12" t="n">
-        <v>171.8734399091348</v>
+        <v>170.2357943404156</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>183.1279722702459</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8930,7 +8930,7 @@
         <v>296.5473836207779</v>
       </c>
       <c r="L14" t="n">
-        <v>309.1347543103989</v>
+        <v>309.1347543103988</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -8942,7 +8942,7 @@
         <v>306.5557439974841</v>
       </c>
       <c r="P14" t="n">
-        <v>307.6905283310668</v>
+        <v>307.6905283310669</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>214.2989715501563</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>215.0119123556715</v>
       </c>
       <c r="M15" t="n">
-        <v>145.4068596126023</v>
+        <v>215.5023732624299</v>
       </c>
       <c r="N15" t="n">
-        <v>207.7992446591306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>219.0537770202418</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>210.4319399901276</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,19 +9167,19 @@
         <v>316.6000652558449</v>
       </c>
       <c r="L17" t="n">
-        <v>332.2766291808516</v>
+        <v>328.3772265864733</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4581627968639</v>
+        <v>325.9232778074553</v>
       </c>
       <c r="O17" t="n">
         <v>326.6084256325511</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,19 +9246,19 @@
         <v>234.3516531852234</v>
       </c>
       <c r="L18" t="n">
-        <v>161.0696777465327</v>
+        <v>235.0645939907386</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>238.6442481328827</v>
       </c>
       <c r="N18" t="n">
-        <v>227.8519262941977</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>239.1064586553088</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>156.4897053809887</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>255.5148970497678</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,7 +9495,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.0093456472021</v>
+        <v>378.3295742140868</v>
       </c>
       <c r="N24" t="n">
         <v>398.2170238085171</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>208.9568034665803</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>154.9592718392217</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -9966,13 +9966,13 @@
         <v>398.2170238085171</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>354.4518677532004</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>263.9367266383075</v>
+        <v>409.0093456472021</v>
       </c>
       <c r="N30" t="n">
         <v>398.2170238085171</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>236.5587498053947</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>409.0093456472021</v>
+        <v>299.5033804738451</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>398.2170238085171</v>
       </c>
       <c r="O33" t="n">
-        <v>389.0412139547992</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>266.055348414755</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>263.7086440150737</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>170.5514663390684</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>364.8979636792562</v>
       </c>
       <c r="M36" t="n">
-        <v>368.4776178214006</v>
+        <v>174.8440612867274</v>
       </c>
       <c r="N36" t="n">
-        <v>357.6852959827156</v>
+        <v>357.6852959827154</v>
       </c>
       <c r="O36" t="n">
-        <v>368.9398283438267</v>
+        <v>368.9398283438265</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>417.3898495101714</v>
+        <v>266.6878796691128</v>
       </c>
       <c r="N38" t="n">
         <v>419.8308427459772</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10908,10 +10908,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>204.1637853145647</v>
       </c>
       <c r="N39" t="n">
-        <v>313.6937289754384</v>
+        <v>321.7594912327195</v>
       </c>
       <c r="O39" t="n">
         <v>333.0140235938306</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,13 +11069,13 @@
         <v>400.711330741592</v>
       </c>
       <c r="N41" t="n">
-        <v>308.5022889745796</v>
+        <v>368.6385463994252</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>312.4991314363375</v>
+        <v>305.6156931529307</v>
       </c>
       <c r="N42" t="n">
         <v>301.7068095976525</v>
@@ -11154,7 +11154,7 @@
         <v>312.9613419587637</v>
       </c>
       <c r="P42" t="n">
-        <v>170.832268607023</v>
+        <v>304.3395049286495</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>245.9508738925051</v>
       </c>
       <c r="L44" t="n">
         <v>261.6274378175118</v>
@@ -11306,10 +11306,10 @@
         <v>256.2072560747973</v>
       </c>
       <c r="N44" t="n">
-        <v>255.2740864441155</v>
+        <v>254.2291966320943</v>
       </c>
       <c r="O44" t="n">
-        <v>254.9143444571901</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11379,13 +11379,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.4154026273987</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>166.9501669575217</v>
+        <v>167.9950567695429</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>157.2027349308579</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -11394,7 +11394,7 @@
         <v>159.8354302618548</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.8427969335461</v>
+        <v>164.7979071215249</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,13 +11458,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>160.7456991287628</v>
+        <v>160.7456991287629</v>
       </c>
       <c r="M46" t="n">
         <v>164.7868067951296</v>
       </c>
       <c r="N46" t="n">
-        <v>153.5465673127577</v>
+        <v>153.5465673127578</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -23258,7 +23258,7 @@
         <v>332.2114146231343</v>
       </c>
       <c r="C11" t="n">
-        <v>319.5818466874968</v>
+        <v>355.2821925564627</v>
       </c>
       <c r="D11" t="n">
         <v>344.6923424061382</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>139.8784187266049</v>
+        <v>99.3466909008034</v>
       </c>
       <c r="S11" t="n">
-        <v>199.0293703717005</v>
+        <v>163.3290245027346</v>
       </c>
       <c r="T11" t="n">
         <v>213.1051503495866</v>
@@ -23318,13 +23318,13 @@
         <v>317.7615592555901</v>
       </c>
       <c r="W11" t="n">
-        <v>298.7185416770667</v>
+        <v>339.2502695028682</v>
       </c>
       <c r="X11" t="n">
-        <v>319.2086736381227</v>
+        <v>359.7404014639242</v>
       </c>
       <c r="Y11" t="n">
-        <v>376.2472394415088</v>
+        <v>335.7155116157073</v>
       </c>
     </row>
     <row r="12">
@@ -23337,16 +23337,16 @@
         <v>116.0107566095211</v>
       </c>
       <c r="C12" t="n">
-        <v>122.1860719479695</v>
+        <v>162.7177997737709</v>
       </c>
       <c r="D12" t="n">
         <v>137.4543663500939</v>
       </c>
       <c r="E12" t="n">
-        <v>147.6543812408561</v>
+        <v>107.1226534150547</v>
       </c>
       <c r="F12" t="n">
-        <v>135.0785131788391</v>
+        <v>99.37816730987313</v>
       </c>
       <c r="G12" t="n">
         <v>127.3528179486658</v>
@@ -23385,7 +23385,7 @@
         <v>90.16713493809833</v>
       </c>
       <c r="S12" t="n">
-        <v>125.9921260203271</v>
+        <v>161.692471889293</v>
       </c>
       <c r="T12" t="n">
         <v>190.1740294802768</v>
@@ -23394,7 +23394,7 @@
         <v>215.95068286643</v>
       </c>
       <c r="V12" t="n">
-        <v>182.278160109079</v>
+        <v>222.8098879348805</v>
       </c>
       <c r="W12" t="n">
         <v>241.7042839463748</v>
@@ -23403,7 +23403,7 @@
         <v>195.7822859889327</v>
       </c>
       <c r="Y12" t="n">
-        <v>195.6919965627596</v>
+        <v>155.1602687369581</v>
       </c>
     </row>
     <row r="13">
@@ -23428,7 +23428,7 @@
         <v>135.4303488083864</v>
       </c>
       <c r="G13" t="n">
-        <v>117.4685523181125</v>
+        <v>134.5787268862861</v>
       </c>
       <c r="H13" t="n">
         <v>111.7047454670933</v>
@@ -23437,10 +23437,10 @@
         <v>104.928047886912</v>
       </c>
       <c r="J13" t="n">
-        <v>47.66813503316202</v>
+        <v>42.83675307632648</v>
       </c>
       <c r="K13" t="n">
-        <v>12.27879261133805</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>41.43814084645769</v>
+        <v>50.55187872949276</v>
       </c>
       <c r="S14" t="n">
-        <v>100.5890924915533</v>
+        <v>177.0466250673507</v>
       </c>
       <c r="T14" t="n">
-        <v>114.6648724694394</v>
+        <v>191.1224050452367</v>
       </c>
       <c r="U14" t="n">
-        <v>152.0284136961796</v>
+        <v>219.3722083889418</v>
       </c>
       <c r="V14" t="n">
         <v>295.7788139512402</v>
       </c>
       <c r="W14" t="n">
-        <v>317.2675241985183</v>
+        <v>240.809991622721</v>
       </c>
       <c r="X14" t="n">
-        <v>337.7576561595744</v>
+        <v>261.300123583777</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.2644941371589</v>
+        <v>277.8069615613616</v>
       </c>
     </row>
     <row r="15">
@@ -23571,16 +23571,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.10220655517534</v>
+        <v>67.21594443821037</v>
       </c>
       <c r="C15" t="n">
-        <v>64.27752189362374</v>
+        <v>64.27752189362373</v>
       </c>
       <c r="D15" t="n">
         <v>115.4716210457441</v>
       </c>
       <c r="E15" t="n">
-        <v>58.32784124374402</v>
+        <v>125.6716359365063</v>
       </c>
       <c r="F15" t="n">
         <v>113.0957678744892</v>
@@ -23589,10 +23589,10 @@
         <v>105.370072644316</v>
       </c>
       <c r="H15" t="n">
-        <v>80.2619997176018</v>
+        <v>80.26199971760181</v>
       </c>
       <c r="I15" t="n">
-        <v>57.42318833252041</v>
+        <v>57.42318833252042</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>68.18438963374847</v>
+        <v>68.18438963374848</v>
       </c>
       <c r="S15" t="n">
-        <v>63.25219400914582</v>
+        <v>139.7097265849432</v>
       </c>
       <c r="T15" t="n">
         <v>168.1912841759269</v>
@@ -23637,10 +23637,10 @@
         <v>219.7215386420249</v>
       </c>
       <c r="X15" t="n">
-        <v>173.7995406845828</v>
+        <v>97.34200810878546</v>
       </c>
       <c r="Y15" t="n">
-        <v>173.7092512584097</v>
+        <v>97.25171868261235</v>
       </c>
     </row>
     <row r="16">
@@ -23665,13 +23665,13 @@
         <v>113.4476035040366</v>
       </c>
       <c r="G16" t="n">
-        <v>59.56000226376676</v>
+        <v>136.0175348395641</v>
       </c>
       <c r="H16" t="n">
-        <v>53.79619541274758</v>
+        <v>53.79619541274757</v>
       </c>
       <c r="I16" t="n">
-        <v>47.01949783256629</v>
+        <v>47.01949783256627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,22 +23695,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.18859873279972</v>
+        <v>54.18859873279973</v>
       </c>
       <c r="R16" t="n">
         <v>145.3199468582748</v>
       </c>
       <c r="S16" t="n">
-        <v>186.0850944230935</v>
+        <v>192.0431535180776</v>
       </c>
       <c r="T16" t="n">
-        <v>195.9721449093868</v>
+        <v>119.5146123335895</v>
       </c>
       <c r="U16" t="n">
         <v>254.3455848375962</v>
       </c>
       <c r="V16" t="n">
-        <v>220.1641988049333</v>
+        <v>214.2061397099492</v>
       </c>
       <c r="W16" t="n">
         <v>254.5495538176963</v>
@@ -23729,16 +23729,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350.7603971445859</v>
+        <v>265.7542004676566</v>
       </c>
       <c r="C17" t="n">
-        <v>333.2994472521129</v>
+        <v>236.7892330412485</v>
       </c>
       <c r="D17" t="n">
-        <v>322.7095971017883</v>
+        <v>226.1993828909239</v>
       </c>
       <c r="E17" t="n">
-        <v>349.9569255533671</v>
+        <v>253.4467113425027</v>
       </c>
       <c r="F17" t="n">
         <v>374.9026012228168</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>32.88947674532575</v>
+        <v>117.895673422255</v>
       </c>
       <c r="S17" t="n">
-        <v>80.53641085648633</v>
+        <v>177.0466250673507</v>
       </c>
       <c r="T17" t="n">
-        <v>94.61219083437234</v>
+        <v>191.1224050452367</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8619941780775</v>
+        <v>219.3722083889419</v>
       </c>
       <c r="V17" t="n">
         <v>295.7788139512402</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>134.5597391309727</v>
+        <v>49.55354245404334</v>
       </c>
       <c r="C18" t="n">
-        <v>123.9132474262403</v>
+        <v>140.7350544694211</v>
       </c>
       <c r="D18" t="n">
         <v>115.4716210457441</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>68.18438963374848</v>
       </c>
       <c r="S18" t="n">
-        <v>43.19951237407881</v>
+        <v>43.19951237407878</v>
       </c>
       <c r="T18" t="n">
-        <v>71.68106996506259</v>
+        <v>168.191284175927</v>
       </c>
       <c r="U18" t="n">
-        <v>97.4577233512158</v>
+        <v>193.9679375620802</v>
       </c>
       <c r="V18" t="n">
         <v>200.8271426305306</v>
@@ -23874,10 +23874,10 @@
         <v>219.721538642025</v>
       </c>
       <c r="X18" t="n">
-        <v>173.7995406845828</v>
+        <v>77.28932647371843</v>
       </c>
       <c r="Y18" t="n">
-        <v>173.7092512584097</v>
+        <v>77.19903704754532</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.8585356630427</v>
+        <v>51.34832145217825</v>
       </c>
       <c r="C19" t="n">
         <v>135.2733765797332</v>
@@ -23896,7 +23896,7 @@
         <v>116.6420284993177</v>
       </c>
       <c r="E19" t="n">
-        <v>17.95030391681016</v>
+        <v>114.4605181276745</v>
       </c>
       <c r="F19" t="n">
         <v>113.4476035040366</v>
@@ -23905,10 +23905,10 @@
         <v>136.0175348395641</v>
       </c>
       <c r="H19" t="n">
-        <v>80.74636272291929</v>
+        <v>130.2537279885449</v>
       </c>
       <c r="I19" t="n">
-        <v>123.4770304083636</v>
+        <v>116.2912806208027</v>
       </c>
       <c r="J19" t="n">
         <v>61.38573559777813</v>
@@ -23932,25 +23932,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>54.18859873279974</v>
       </c>
       <c r="R19" t="n">
         <v>145.3199468582748</v>
       </c>
       <c r="S19" t="n">
-        <v>95.53293930721324</v>
+        <v>192.0431535180776</v>
       </c>
       <c r="T19" t="n">
         <v>195.9721449093869</v>
       </c>
       <c r="U19" t="n">
-        <v>254.3455848375962</v>
+        <v>157.8353706267318</v>
       </c>
       <c r="V19" t="n">
         <v>220.1641988049334</v>
       </c>
       <c r="W19" t="n">
-        <v>254.5495538176964</v>
+        <v>158.039339606832</v>
       </c>
       <c r="X19" t="n">
         <v>193.7362108701425</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>350.7603971445859</v>
+        <v>138.4750115011438</v>
       </c>
       <c r="C20" t="n">
         <v>333.2994472521129</v>
@@ -24023,7 +24023,7 @@
         <v>191.1224050452367</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>219.3722083889419</v>
       </c>
       <c r="V20" t="n">
         <v>295.7788139512402</v>
@@ -24035,7 +24035,7 @@
         <v>96.74336728191531</v>
       </c>
       <c r="Y20" t="n">
-        <v>120.3370280049997</v>
+        <v>113.2502052594999</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>134.5597391309727</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>140.7350544694211</v>
       </c>
       <c r="D21" t="n">
         <v>115.4716210457441</v>
@@ -24057,16 +24057,16 @@
         <v>125.6716359365063</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>113.0957678744892</v>
       </c>
       <c r="G21" t="n">
-        <v>105.370072644316</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>57.42318833252043</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>68.18438963374848</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>139.7097265849432</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>34.92870923025203</v>
       </c>
       <c r="U21" t="n">
-        <v>38.06851849764553</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>200.8271426305306</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>147.8585356630427</v>
+        <v>92.15643212054751</v>
       </c>
       <c r="C22" t="n">
         <v>135.2733765797332</v>
@@ -24133,13 +24133,13 @@
         <v>116.6420284993177</v>
       </c>
       <c r="E22" t="n">
-        <v>99.08160740535942</v>
+        <v>114.4605181276745</v>
       </c>
       <c r="F22" t="n">
         <v>113.4476035040366</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.0175348395641</v>
       </c>
       <c r="H22" t="n">
         <v>130.2537279885449</v>
@@ -24172,7 +24172,7 @@
         <v>54.18859873279974</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>145.3199468582748</v>
       </c>
       <c r="S22" t="n">
         <v>192.0431535180776</v>
@@ -24187,7 +24187,7 @@
         <v>220.1641988049334</v>
       </c>
       <c r="W22" t="n">
-        <v>254.5495538176964</v>
+        <v>13.53526494003731</v>
       </c>
       <c r="X22" t="n">
         <v>193.7362108701425</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>346.6544266636504</v>
+        <v>79.77911493846665</v>
       </c>
       <c r="C23" t="n">
-        <v>329.1934767711774</v>
+        <v>62.31816504599362</v>
       </c>
       <c r="D23" t="n">
-        <v>318.6036266208528</v>
+        <v>51.72831489566903</v>
       </c>
       <c r="E23" t="n">
-        <v>285.1836550754657</v>
+        <v>110.7871805048897</v>
       </c>
       <c r="F23" t="n">
-        <v>103.9213190166975</v>
+        <v>370.7966307418813</v>
       </c>
       <c r="G23" t="n">
-        <v>112.3480107901211</v>
+        <v>379.2233225153049</v>
       </c>
       <c r="H23" t="n">
-        <v>36.52007539075322</v>
+        <v>303.395387115937</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>174.3964745705758</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>130.4537686500372</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>66.90557058903381</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>111.3656505648086</v>
+        <v>29.71727940186173</v>
       </c>
       <c r="E24" t="n">
         <v>121.5656654555708</v>
@@ -24303,7 +24303,7 @@
         <v>76.15602923666634</v>
       </c>
       <c r="I24" t="n">
-        <v>53.31721785158495</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>135.6037561040077</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>196.7211721495951</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>141.2139763773393</v>
       </c>
       <c r="S25" t="n">
-        <v>83.13344893079663</v>
+        <v>187.9371830371421</v>
       </c>
       <c r="T25" t="n">
-        <v>191.8661744284514</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>250.2396143566608</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>216.0582283239979</v>
       </c>
       <c r="W25" t="n">
         <v>250.4435833367609</v>
@@ -24430,7 +24430,7 @@
         <v>189.630240389207</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.5052383522647</v>
+        <v>53.50945035037265</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24443,7 @@
         <v>346.6544266636504</v>
       </c>
       <c r="C26" t="n">
-        <v>329.1934767711774</v>
+        <v>94.12970220363547</v>
       </c>
       <c r="D26" t="n">
         <v>318.6036266208528</v>
@@ -24458,7 +24458,7 @@
         <v>379.2233225153049</v>
       </c>
       <c r="H26" t="n">
-        <v>303.395387115937</v>
+        <v>36.52007539075322</v>
       </c>
       <c r="I26" t="n">
         <v>174.3964745705758</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>113.7897029413195</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>172.9406545864152</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>187.0164345643012</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>215.2662379080064</v>
       </c>
       <c r="V26" t="n">
-        <v>24.79753174512098</v>
+        <v>291.6728434703048</v>
       </c>
       <c r="W26" t="n">
-        <v>233.3601856997157</v>
+        <v>46.28624199239908</v>
       </c>
       <c r="X26" t="n">
         <v>333.6516856786389</v>
       </c>
       <c r="Y26" t="n">
-        <v>350.1585236562235</v>
+        <v>83.28321193103966</v>
       </c>
     </row>
     <row r="27">
@@ -24522,13 +24522,13 @@
         <v>130.4537686500372</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>136.6290839884856</v>
       </c>
       <c r="D27" t="n">
         <v>111.3656505648086</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.611513127845342</v>
       </c>
       <c r="F27" t="n">
         <v>108.9897973935537</v>
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>53.31721785158495</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>46.03390076815509</v>
+        <v>64.07841915281301</v>
       </c>
       <c r="S27" t="n">
-        <v>135.6037561040077</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>164.0853136949915</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>189.8619670811447</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>196.7211721495951</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24601,28 +24601,28 @@
         <v>143.7525651821072</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>131.1674060987977</v>
       </c>
       <c r="D28" t="n">
-        <v>112.5360580183822</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>110.354547646739</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>109.3416330231011</v>
       </c>
       <c r="G28" t="n">
-        <v>131.84724841629</v>
+        <v>131.9115643586286</v>
       </c>
       <c r="H28" t="n">
-        <v>126.1477575076094</v>
+        <v>85.45616585923</v>
       </c>
       <c r="I28" t="n">
         <v>119.3710599274281</v>
       </c>
       <c r="J28" t="n">
-        <v>57.27976511684265</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>250.4435833367609</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>189.630240389207</v>
       </c>
       <c r="Y28" t="n">
         <v>182.5052383522647</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>275.8030683864105</v>
+        <v>8.927756661226681</v>
       </c>
       <c r="C29" t="n">
         <v>258.3421184939374</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>247.7522683436129</v>
       </c>
       <c r="E29" t="n">
         <v>274.9995967951917</v>
       </c>
       <c r="F29" t="n">
-        <v>109.4414836144323</v>
+        <v>299.9452724646413</v>
       </c>
       <c r="G29" t="n">
         <v>308.3719642380649</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>232.544028838697</v>
       </c>
       <c r="I29" t="n">
         <v>103.5451162933358</v>
@@ -24728,7 +24728,7 @@
         <v>42.93834466407957</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>102.0892963091752</v>
       </c>
       <c r="T29" t="n">
         <v>116.1650762870612</v>
@@ -24740,13 +24740,13 @@
         <v>220.8214851930648</v>
       </c>
       <c r="W29" t="n">
-        <v>242.3101954403429</v>
+        <v>3.171436549016306</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>279.3071653789835</v>
+        <v>12.43185365379969</v>
       </c>
     </row>
     <row r="30">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.90120690486718</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>60.31604782155772</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>41.68469974114224</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>39.50318936949905</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>38.49027474586113</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>55.29639923036946</v>
       </c>
       <c r="I31" t="n">
-        <v>48.51970165018817</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>70.36261810009937</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>117.0858247599021</v>
       </c>
       <c r="T31" t="n">
-        <v>121.0148161512114</v>
+        <v>37.12182690213726</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>179.3882560794208</v>
       </c>
       <c r="V31" t="n">
-        <v>22.81985143215796</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>118.778882111967</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>111.6538800750247</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>275.8030683864105</v>
+        <v>8.927756661226681</v>
       </c>
       <c r="C32" t="n">
         <v>258.3421184939374</v>
       </c>
       <c r="D32" t="n">
-        <v>82.4094462660928</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>274.9995967951917</v>
@@ -24932,10 +24932,10 @@
         <v>308.3719642380649</v>
       </c>
       <c r="H32" t="n">
-        <v>232.544028838697</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>103.5451162933358</v>
+        <v>81.90232718291992</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,19 +24971,19 @@
         <v>116.1650762870612</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>144.4148796307664</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>220.8214851930648</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>242.3101954403429</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>262.8003274013989</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.3071653789835</v>
+        <v>12.43185365379969</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.90120690486718</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>60.31604782155772</v>
       </c>
       <c r="D34" t="n">
         <v>41.68469974114224</v>
       </c>
       <c r="E34" t="n">
-        <v>39.50318936949905</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>38.49027474586113</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>61.06020608138864</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>55.29639923036946</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>20.34697147967108</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25123,22 @@
         <v>70.36261810009937</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>117.0858247599021</v>
       </c>
       <c r="T34" t="n">
-        <v>121.0148161512114</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>70.59539482251522</v>
+        <v>179.3882560794208</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>145.2068700467579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>118.778882111967</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,25 +25154,25 @@
         <v>275.8030683864105</v>
       </c>
       <c r="C35" t="n">
-        <v>258.3421184939374</v>
+        <v>58.97868979536184</v>
       </c>
       <c r="D35" t="n">
         <v>247.7522683436129</v>
       </c>
       <c r="E35" t="n">
-        <v>274.9995967951917</v>
+        <v>48.6560128958096</v>
       </c>
       <c r="F35" t="n">
         <v>299.9452724646413</v>
       </c>
       <c r="G35" t="n">
-        <v>308.3719642380649</v>
+        <v>82.02838033868287</v>
       </c>
       <c r="H35" t="n">
-        <v>41.18570215537792</v>
+        <v>6.200444939314963</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>103.5451162933358</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25202,16 @@
         <v>42.93834466407957</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>102.0892963091752</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>116.1650762870612</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>144.4148796307664</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>220.8214851930648</v>
       </c>
       <c r="W35" t="n">
         <v>242.3101954403429</v>
@@ -25233,16 +25233,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56.82571667403569</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>40.51429228756864</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>42.92538309692181</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>38.13843911631376</v>
       </c>
       <c r="G36" t="n">
         <v>30.41274388614052</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>64.75239782676771</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.90120690486718</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>60.31604782155772</v>
@@ -25318,10 +25318,10 @@
         <v>41.68469974114224</v>
       </c>
       <c r="E37" t="n">
-        <v>39.50318936949905</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>38.49027474586113</v>
       </c>
       <c r="G37" t="n">
         <v>61.06020608138864</v>
@@ -25330,7 +25330,7 @@
         <v>55.29639923036946</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>48.51970165018817</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25360,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>117.0858247599021</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>121.0148161512114</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>118.0986717904442</v>
       </c>
       <c r="V37" t="n">
-        <v>130.1862332751697</v>
+        <v>145.2068700467579</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.6538800750247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,16 +25394,16 @@
         <v>262.4480889748729</v>
       </c>
       <c r="D38" t="n">
-        <v>61.44045967516209</v>
+        <v>251.8582388245483</v>
       </c>
       <c r="E38" t="n">
-        <v>279.1055672761271</v>
+        <v>111.3855874013477</v>
       </c>
       <c r="F38" t="n">
-        <v>304.0512429455768</v>
+        <v>113.6334637961906</v>
       </c>
       <c r="G38" t="n">
-        <v>312.4779347190004</v>
+        <v>122.0601555696142</v>
       </c>
       <c r="H38" t="n">
         <v>236.6499993196325</v>
@@ -25439,10 +25439,10 @@
         <v>47.04431514501505</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>106.1952667901107</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>120.2710467679967</v>
       </c>
       <c r="U38" t="n">
         <v>148.5208501117019</v>
@@ -25457,7 +25457,7 @@
         <v>76.48851873294817</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.7416903938608</v>
+        <v>283.413135859919</v>
       </c>
     </row>
     <row r="39">
@@ -25479,10 +25479,10 @@
         <v>54.82027765926631</v>
       </c>
       <c r="F39" t="n">
-        <v>42.24440959724924</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6539423342533723</v>
+        <v>34.518714367076</v>
       </c>
       <c r="H39" t="n">
         <v>9.410641440361829</v>
@@ -25518,10 +25518,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>68.85836830770319</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>77.23800587212969</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.792771624304251</v>
+        <v>77.00717738580266</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>64.4220183024932</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.79067022207772</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>43.60915985043454</v>
       </c>
       <c r="F40" t="n">
         <v>42.59624522679661</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.16617656232413</v>
       </c>
       <c r="H40" t="n">
         <v>59.40236971130494</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>74.46858858103485</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>121.1917952408376</v>
+        <v>96.07718172034291</v>
       </c>
       <c r="T40" t="n">
         <v>125.1207866321469</v>
       </c>
       <c r="U40" t="n">
-        <v>183.4942265603563</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>122.8848525929025</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.7598505559602</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25640,13 @@
         <v>314.0419421601216</v>
       </c>
       <c r="G41" t="n">
-        <v>290.052842031749</v>
+        <v>322.4686339335452</v>
       </c>
       <c r="H41" t="n">
-        <v>76.2756010198581</v>
+        <v>246.6406985341773</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>117.6417859888161</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25676,25 @@
         <v>57.03501435955985</v>
       </c>
       <c r="S41" t="n">
-        <v>116.1859660046555</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>130.2617459825415</v>
       </c>
       <c r="U41" t="n">
-        <v>158.5115493262467</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>234.9181548885451</v>
+        <v>189.1929948145157</v>
       </c>
       <c r="W41" t="n">
-        <v>256.4068651358232</v>
+        <v>86.04176762150396</v>
       </c>
       <c r="X41" t="n">
         <v>106.53189958256</v>
       </c>
       <c r="Y41" t="n">
-        <v>123.0387375601445</v>
+        <v>293.4038350744638</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>73.69908006827751</v>
       </c>
       <c r="C42" t="n">
-        <v>79.87439540672591</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>54.61096198304892</v>
@@ -25758,7 +25758,7 @@
         <v>78.84906752224799</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>24.91338597121032</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>158.8608795793298</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>103.8998701438143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.53587879121325</v>
+        <v>86.99787660034747</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>55.78136943662253</v>
+        <v>16.0446933796749</v>
       </c>
       <c r="E43" t="n">
         <v>53.59985906497934</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>52.58694444134142</v>
       </c>
       <c r="G43" t="n">
         <v>75.15687577686893</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>69.39306892584975</v>
       </c>
       <c r="I43" t="n">
         <v>62.61637134566845</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.45928779557966</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>131.1824944553824</v>
       </c>
       <c r="T43" t="n">
         <v>135.1114858466917</v>
@@ -25843,16 +25843,16 @@
         <v>23.11982826058184</v>
       </c>
       <c r="V43" t="n">
-        <v>159.3035397422382</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>193.6888947550012</v>
       </c>
       <c r="X43" t="n">
-        <v>132.8755518074473</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>125.750549770505</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>356.8728188159561</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,7 +25871,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.0919697173195</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>313.6137792682426</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>225.4846300603119</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>323.3799458698885</v>
+        <v>323.3799458698884</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>360.376915808529</v>
+        <v>373.4502489464988</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>143.7547947257677</v>
+        <v>140.6721608023428</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>149.9301100642161</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25953,7 +25953,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>119.2081895458593</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25995,7 +25995,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>174.3037058472971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,7 +26004,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>225.8339603133951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>179.9119623559529</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>157.2799993773842</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26041,13 +26041,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.1679859485881</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>67.49815726914824</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>260.4580065089663</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>296146.0269035403</v>
+        <v>296146.0269035402</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>365003.6258214692</v>
+        <v>365003.6258214693</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>476015.5644000394</v>
+        <v>476015.5644000395</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>631644.9727411824</v>
+        <v>631644.9727411825</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>611710.7786406096</v>
+        <v>611710.7786406092</v>
       </c>
     </row>
     <row r="14">
@@ -26314,40 +26314,40 @@
         <v>716866.7963774087</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.796377409</v>
       </c>
       <c r="D2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="E2" t="n">
-        <v>230759.4199933034</v>
+        <v>230759.4199933035</v>
       </c>
       <c r="F2" t="n">
         <v>294820.7124039471</v>
       </c>
       <c r="G2" t="n">
-        <v>303128.0451093871</v>
+        <v>303128.0451093872</v>
       </c>
       <c r="H2" t="n">
         <v>362992.5284436032</v>
       </c>
       <c r="I2" t="n">
-        <v>382778.2254216159</v>
+        <v>382778.2254216157</v>
       </c>
       <c r="J2" t="n">
-        <v>382778.2254216158</v>
+        <v>382778.2254216155</v>
       </c>
       <c r="K2" t="n">
-        <v>538407.6337627602</v>
+        <v>538407.6337627601</v>
       </c>
       <c r="L2" t="n">
-        <v>538407.6337627601</v>
+        <v>538407.6337627594</v>
       </c>
       <c r="M2" t="n">
-        <v>521616.3360050346</v>
+        <v>521616.3360050343</v>
       </c>
       <c r="N2" t="n">
-        <v>497969.1422582758</v>
+        <v>497969.1422582756</v>
       </c>
       <c r="O2" t="n">
         <v>468065.1638439255</v>
@@ -26378,10 +26378,10 @@
         <v>27879.8733752772</v>
       </c>
       <c r="G3" t="n">
-        <v>5496.139245947337</v>
+        <v>5496.139245947341</v>
       </c>
       <c r="H3" t="n">
-        <v>38988.49988177321</v>
+        <v>38988.4998817732</v>
       </c>
       <c r="I3" t="n">
         <v>10161.76544138501</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="C4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="D4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="E4" t="n">
-        <v>79678.04608030865</v>
+        <v>80502.4802587999</v>
       </c>
       <c r="F4" t="n">
-        <v>116513.6299142776</v>
+        <v>117398.5388474928</v>
       </c>
       <c r="G4" t="n">
-        <v>119158.4596455809</v>
+        <v>120076.9564935687</v>
       </c>
       <c r="H4" t="n">
-        <v>138217.6897240592</v>
+        <v>139378.2285409234</v>
       </c>
       <c r="I4" t="n">
-        <v>149993.0463733207</v>
+        <v>151168.639550543</v>
       </c>
       <c r="J4" t="n">
-        <v>149993.0463733207</v>
+        <v>151168.639550543</v>
       </c>
       <c r="K4" t="n">
-        <v>251652.7082978467</v>
+        <v>252828.301475069</v>
       </c>
       <c r="L4" t="n">
-        <v>251652.7082978467</v>
+        <v>252828.301475069</v>
       </c>
       <c r="M4" t="n">
-        <v>243867.7609824663</v>
+        <v>245003.7266077028</v>
       </c>
       <c r="N4" t="n">
-        <v>233402.4098586043</v>
+        <v>234478.2003466678</v>
       </c>
       <c r="O4" t="n">
-        <v>216645.4723287391</v>
+        <v>217687.67490203</v>
       </c>
       <c r="P4" t="n">
-        <v>62463.93917776691</v>
+        <v>63261.29346081488</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>3304.237144076298</v>
       </c>
       <c r="F5" t="n">
-        <v>7336.593487867432</v>
+        <v>7336.593487867433</v>
       </c>
       <c r="G5" t="n">
-        <v>8555.796531279508</v>
+        <v>8555.79653127951</v>
       </c>
       <c r="H5" t="n">
         <v>17341.64427102062</v>
@@ -26500,7 +26500,7 @@
         <v>25215.58213152118</v>
       </c>
       <c r="M5" t="n">
-        <v>22751.25307971245</v>
+        <v>22751.25307971243</v>
       </c>
       <c r="N5" t="n">
         <v>20221.77931855093</v>
@@ -26509,7 +26509,7 @@
         <v>18162.66818287128</v>
       </c>
       <c r="P5" t="n">
-        <v>1572.350189129492</v>
+        <v>1572.350189129494</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279963.0736965062</v>
+        <v>279217.5383175944</v>
       </c>
       <c r="C6" t="n">
-        <v>279963.0736965062</v>
+        <v>279217.5383175948</v>
       </c>
       <c r="D6" t="n">
-        <v>279963.0736965062</v>
+        <v>279217.5383175943</v>
       </c>
       <c r="E6" t="n">
-        <v>127682.6951665104</v>
+        <v>126858.2609880193</v>
       </c>
       <c r="F6" t="n">
-        <v>143090.6156265249</v>
+        <v>142205.7066933097</v>
       </c>
       <c r="G6" t="n">
-        <v>169917.6496865793</v>
+        <v>168999.1528385916</v>
       </c>
       <c r="H6" t="n">
-        <v>168444.6945667501</v>
+        <v>167284.155749886</v>
       </c>
       <c r="I6" t="n">
-        <v>203364.2343143982</v>
+        <v>202188.6411371758</v>
       </c>
       <c r="J6" t="n">
-        <v>205533.4403841474</v>
+        <v>204357.8472069248</v>
       </c>
       <c r="K6" t="n">
-        <v>187272.0604681204</v>
+        <v>186096.4672908981</v>
       </c>
       <c r="L6" t="n">
-        <v>261539.3433333922</v>
+        <v>260363.7501561692</v>
       </c>
       <c r="M6" t="n">
-        <v>254997.3219428559</v>
+        <v>253861.3563176191</v>
       </c>
       <c r="N6" t="n">
-        <v>244344.9530811205</v>
+        <v>243269.1625930569</v>
       </c>
       <c r="O6" t="n">
-        <v>233257.0233323151</v>
+        <v>232214.8207590242</v>
       </c>
       <c r="P6" t="n">
-        <v>136918.0919339919</v>
+        <v>136120.7376509439</v>
       </c>
     </row>
   </sheetData>
@@ -26799,10 +26799,10 @@
         <v>40.53172782580149</v>
       </c>
       <c r="F4" t="n">
-        <v>76.45753257579733</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="G4" t="n">
-        <v>96.51021421086438</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26820,7 +26820,7 @@
         <v>266.8753117251838</v>
       </c>
       <c r="M4" t="n">
-        <v>226.3435838993823</v>
+        <v>226.3435838993821</v>
       </c>
       <c r="N4" t="n">
         <v>190.4177791493862</v>
@@ -26829,7 +26829,7 @@
         <v>170.3650975143192</v>
       </c>
       <c r="P4" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
     </row>
   </sheetData>
@@ -27021,7 +27021,7 @@
         <v>40.5317278258015</v>
       </c>
       <c r="F4" t="n">
-        <v>35.92580474999584</v>
+        <v>35.92580474999585</v>
       </c>
       <c r="G4" t="n">
         <v>20.05268163506705</v>
@@ -27267,7 +27267,7 @@
         <v>40.5317278258015</v>
       </c>
       <c r="N4" t="n">
-        <v>35.92580474999584</v>
+        <v>35.92580474999585</v>
       </c>
       <c r="O4" t="n">
         <v>20.05268163506705</v>
@@ -29071,13 +29071,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>36.07941499983013</v>
+      </c>
+      <c r="O23" t="n">
         <v>16.10094514774476</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
-        <v>36.07941499983013</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>36.07941499983013</v>
@@ -29299,22 +29299,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>36.07941499983013</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>36.07941499983013</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>36.07941499983013</v>
+        <v>30.24037157841758</v>
       </c>
       <c r="P26" t="n">
-        <v>30.24037157841758</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>9.990699214544788</v>
@@ -29773,10 +29773,10 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
-        <v>5.459127515552524</v>
+        <v>17.41868943335722</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>84.98051214472059</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29791,7 +29791,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.9307732770701</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>106.9307732770701</v>
@@ -35413,10 +35413,10 @@
         <v>40.53172782580149</v>
       </c>
       <c r="L11" t="n">
+        <v>40.53172782580149</v>
+      </c>
+      <c r="M11" t="n">
         <v>38.89408225708225</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>40.53172782580149</v>
       </c>
       <c r="P11" t="n">
-        <v>40.53172782580149</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>40.53172782580149</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>38.89408225708225</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>40.53172782580149</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>76.45753257579733</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="L14" t="n">
-        <v>73.36833934041162</v>
+        <v>73.36833934041159</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>76.45753257579733</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="P14" t="n">
-        <v>76.45753257579733</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>76.45753257579733</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="M15" t="n">
-        <v>3.272825690584042</v>
+        <v>73.36833934041159</v>
       </c>
       <c r="N15" t="n">
-        <v>76.45753257579733</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>76.45753257579733</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>76.45753257579734</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>9.703952693011811</v>
+        <v>9.703952693011807</v>
       </c>
       <c r="L16" t="n">
-        <v>59.56346977921081</v>
+        <v>59.5634697792108</v>
       </c>
       <c r="M16" t="n">
         <v>71.55732148073525</v>
@@ -35817,7 +35817,7 @@
         <v>76.10561689812326</v>
       </c>
       <c r="O16" t="n">
-        <v>56.55857243293434</v>
+        <v>56.55857243293433</v>
       </c>
       <c r="P16" t="n">
         <v>29.25200378378815</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>96.51021421086438</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="L17" t="n">
-        <v>96.51021421086438</v>
+        <v>92.61081161648602</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.045099200272937</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="O17" t="n">
-        <v>96.51021421086438</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>96.51021421086438</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51529796665849</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>96.5102142108644</v>
       </c>
       <c r="N18" t="n">
-        <v>96.51021421086438</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.51021421086438</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>22.51529796665848</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36203,10 +36203,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>113.3808631277495</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,7 +36215,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36367,13 +36367,13 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N23" t="n">
-        <v>224.034805963138</v>
+        <v>244.0132758152234</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>166.8029149888034</v>
       </c>
       <c r="P23" t="n">
-        <v>126.6451274160432</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q23" t="n">
         <v>26.08871578528532</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>266.8753117251838</v>
+        <v>236.1955402920686</v>
       </c>
       <c r="N24" t="n">
         <v>266.8753117251838</v>
@@ -36452,7 +36452,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>74.98239605225005</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>140.1349765260143</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>181.8947995804632</v>
+        <v>217.9742145802933</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>255.2467152653899</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>186.7813848408888</v>
+        <v>180.9423414194762</v>
       </c>
       <c r="P26" t="n">
-        <v>120.8060839946307</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>17.11783286486269</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>266.8753117251838</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>211.855623308756</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>121.8026927162892</v>
+        <v>266.8753117251838</v>
       </c>
       <c r="N30" t="n">
         <v>266.8753117251838</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>93.96250536095026</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>109.5146890417367</v>
+        <v>121.4742509595414</v>
       </c>
       <c r="L32" t="n">
-        <v>181.8947995804632</v>
+        <v>266.8753117251838</v>
       </c>
       <c r="M32" t="n">
         <v>219.1673002655598</v>
@@ -37087,7 +37087,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
-        <v>96.94007406252531</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>157.3693465518269</v>
+      </c>
+      <c r="N33" t="n">
         <v>266.8753117251838</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" t="n">
-        <v>246.4449695103548</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>45.96549736977442</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37321,7 +37321,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>32.47564825980412</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>32.71002736470944</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>226.3435838993821</v>
       </c>
       <c r="M36" t="n">
-        <v>226.3435838993823</v>
+        <v>32.71002736470908</v>
       </c>
       <c r="N36" t="n">
-        <v>226.3435838993823</v>
+        <v>226.3435838993821</v>
       </c>
       <c r="O36" t="n">
-        <v>226.3435838993823</v>
+        <v>226.3435838993821</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37549,13 +37549,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>187.0436162828987</v>
+        <v>36.34164644184008</v>
       </c>
       <c r="N38" t="n">
         <v>190.4177791493862</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37628,10 +37628,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>62.02975139254639</v>
       </c>
       <c r="N39" t="n">
-        <v>182.3520168921051</v>
+        <v>190.4177791493862</v>
       </c>
       <c r="O39" t="n">
         <v>190.4177791493862</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>170.3650975143192</v>
       </c>
       <c r="N41" t="n">
-        <v>79.08922537798874</v>
+        <v>139.2254828028343</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>170.3650975143192</v>
+        <v>163.4816592309124</v>
       </c>
       <c r="N42" t="n">
         <v>170.3650975143192</v>
@@ -37874,7 +37874,7 @@
         <v>170.3650975143192</v>
       </c>
       <c r="P42" t="n">
-        <v>36.85786119269273</v>
+        <v>170.3650975143192</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="L44" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="M44" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="N44" t="n">
-        <v>25.86102284752454</v>
+        <v>24.81613303550337</v>
       </c>
       <c r="O44" t="n">
-        <v>24.81613303550334</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.86102284752454</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>24.81613303550335</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.86102284752454</v>
+        <v>24.81613303550337</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="M46" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="N46" t="n">
-        <v>25.86102284752454</v>
+        <v>25.86102284752457</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
